--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8820" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8820" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LorenzX" sheetId="2" r:id="rId2"/>
     <sheet name="Lorenz" sheetId="3" r:id="rId3"/>
     <sheet name="FinancialTop80volume" sheetId="4" r:id="rId4"/>
+    <sheet name="FinancialTop80volumeX6" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -391,34 +392,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>RUNNING</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0200</t>
-  </si>
-  <si>
-    <t>0200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0010</t>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>batches_per_epoch</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>../data/prices.5min.top100volume/top80volumestocks.normalized.npy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>../model/FinancialTop80volumeX6/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</t>
+  </si>
+  <si>
+    <t>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0020' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +662,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -961,50 +1014,50 @@
   <sheetData>
     <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="20" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="15" t="s">
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
     </row>
     <row r="5" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1288,23 +1341,23 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="18"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
-      <c r="AG14" s="18"/>
-      <c r="AH14" s="18"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
     </row>
     <row r="33" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -1450,15 +1503,15 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="20"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="20"/>
+      <c r="R44" s="20"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="20"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1482,49 +1535,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z9" sqref="Z9:AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -1582,7 +1635,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1610,31 +1663,31 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="19" t="str">
+      <c r="N3" s="20" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
-        <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
-      </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+        <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 2 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
+      </c>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
       <c r="W3" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="X3">
         <v>10</v>
@@ -1642,24 +1695,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="19" t="str">
+      <c r="Z3" s="20" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
-        <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
-      </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+        <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0004' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
+      </c>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1690,20 +1743,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="19" t="str">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G2 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1713,24 +1766,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="19" t="str">
+      <c r="Z4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G2.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
       <c r="AI4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1761,20 +1814,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19" t="str">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G3 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1784,24 +1837,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="19" t="str">
+      <c r="Z5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G3.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
       <c r="AI5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1832,20 +1885,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="19" t="str">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G4 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1855,24 +1908,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="19" t="str">
+      <c r="Z6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G4.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1903,20 +1956,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="19" t="str">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G5 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="8" t="s">
         <v>99</v>
       </c>
@@ -1926,24 +1979,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="19" t="str">
+      <c r="Z7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G5.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu.0050' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
       <c r="AI7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1974,20 +2027,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="19" t="str">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G6 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="8" t="s">
         <v>100</v>
       </c>
@@ -1997,24 +2050,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="19" t="str">
+      <c r="Z8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G6.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu.0070' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
       <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2045,22 +2098,22 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="19" t="str">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G7 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="X9">
         <v>10</v>
@@ -2068,24 +2121,24 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="19" t="str">
+      <c r="Z9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G7.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
       <c r="AI9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2116,22 +2169,22 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="19" t="str">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G8 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="X10">
         <v>10</v>
@@ -2139,177 +2192,177 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="19" t="str">
+      <c r="Z10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G8.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
       <c r="AI10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2355,7 +2408,7 @@
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2364,42 +2417,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -2457,7 +2510,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2490,24 +2543,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="19" t="str">
+      <c r="N3" s="20" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S Lorenz-CR-G1 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
       <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
@@ -2517,24 +2570,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="19" t="str">
+      <c r="Z3" s="20" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S Lorenz-CR-G1.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2565,20 +2618,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="19" t="str">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G2 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -2588,24 +2641,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="19" t="str">
+      <c r="Z4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G2.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2636,20 +2689,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19" t="str">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G3 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -2659,24 +2712,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="19" t="str">
+      <c r="Z5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G3.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2707,20 +2760,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="19" t="str">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G4 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2730,24 +2783,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="19" t="str">
+      <c r="Z6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G4.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2778,22 +2831,22 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="19" t="str">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G5 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="X7">
         <v>10</v>
@@ -2801,24 +2854,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="19" t="str">
+      <c r="Z7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G5.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
       <c r="AI7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -2849,20 +2902,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="19" t="str">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G6 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="8" t="s">
         <v>69</v>
       </c>
@@ -2872,24 +2925,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="19" t="str">
+      <c r="Z8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G6.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
       <c r="AI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="22"/>
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2920,20 +2973,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="19" t="str">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G7 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="8" t="s">
         <v>69</v>
       </c>
@@ -2943,21 +2996,21 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="19" t="str">
+      <c r="Z9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G7.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="22"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -2988,20 +3041,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="19" t="str">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G8 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
@@ -3011,174 +3064,174 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="19" t="str">
+      <c r="Z10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G8.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
+      <c r="A11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="22"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="22"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="22"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3223,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AI19"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6:AH6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3233,42 +3286,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21" t="s">
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
     </row>
     <row r="2" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -3356,26 +3409,26 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="22" t="s">
+      <c r="M3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="19" t="str">
+      <c r="N3" s="20" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="19"/>
+      <c r="O3" s="20"/>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
       <c r="W3" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="X3">
         <v>10</v>
@@ -3383,20 +3436,20 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="19" t="str">
+      <c r="Z3" s="20" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="19"/>
-      <c r="AC3" s="19"/>
-      <c r="AD3" s="19"/>
-      <c r="AE3" s="19"/>
-      <c r="AF3" s="19"/>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
       <c r="AI3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3430,22 +3483,22 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="19" t="str">
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G2 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
       <c r="W4" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="X4">
         <v>10</v>
@@ -3453,20 +3506,20 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="19" t="str">
+      <c r="Z4" s="20" t="str">
         <f>CONCATENATE("screen -S ", B4, ".test python lstm.keras.py ", E4, " ", C4, " --data_path '", $L$3, "' --model_path '", $M$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", W4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --data_scale --test --test_length ", Y4, " --n_figs ", X4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
       <c r="AI4" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3500,22 +3553,22 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="19" t="str">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
       <c r="W5" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X5">
         <v>10</v>
@@ -3523,20 +3576,20 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="19" t="str">
+      <c r="Z5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
       <c r="AI5" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3570,22 +3623,22 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="19" t="str">
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
       <c r="W6" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -3593,20 +3646,20 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="19" t="str">
+      <c r="Z6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
       <c r="AI6" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3640,22 +3693,22 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="19" t="str">
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
       <c r="W7" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X7">
         <v>10</v>
@@ -3663,18 +3716,21 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="19" t="str">
+      <c r="Z7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
+      <c r="AA7" s="20"/>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -3707,22 +3763,22 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="19" t="str">
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
       <c r="W8" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X8">
         <v>10</v>
@@ -3730,18 +3786,21 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="19" t="str">
+      <c r="Z8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -3774,22 +3833,22 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="19" t="str">
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
       <c r="W9" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X9">
         <v>10</v>
@@ -3797,18 +3856,18 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="19" t="str">
+      <c r="Z9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19"/>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19"/>
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
     </row>
     <row r="10" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3841,22 +3900,22 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="19" t="str">
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
       <c r="W10" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="X10">
         <v>10</v>
@@ -3864,131 +3923,131 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="19" t="str">
+      <c r="Z10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="19"/>
-      <c r="AC10" s="19"/>
-      <c r="AD10" s="19"/>
-      <c r="AE10" s="19"/>
-      <c r="AF10" s="19"/>
-      <c r="AG10" s="19"/>
-      <c r="AH10" s="19"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
     </row>
     <row r="11" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="19"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
-      <c r="V12" s="19"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
     </row>
     <row r="13" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
     </row>
     <row r="14" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="19"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
-      <c r="Q14" s="19"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
     </row>
     <row r="15" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="19"/>
-      <c r="S15" s="19"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
-      <c r="V15" s="19"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
     </row>
     <row r="16" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="S16" s="19"/>
-      <c r="T16" s="19"/>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
-      <c r="V17" s="19"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="19"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="19"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
-      <c r="V18" s="19"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="19"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19"/>
-      <c r="R19" s="19"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19"/>
-      <c r="V19" s="19"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4024,4 +4083,869 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AK19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="AK10" sqref="AK10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:37" x14ac:dyDescent="0.2">
+      <c r="C1" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+    </row>
+    <row r="2" spans="2:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="X2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="20" t="str">
+        <f>CONCATENATE("screen -S ", B3, " python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>500</v>
+      </c>
+      <c r="AA3" s="20" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", X3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", Z3, " --fit_generator --n_figs ", Y3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0020' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="20" t="str">
+        <f t="shared" ref="O4:O10" si="0">CONCATENATE("screen -S ", B4, " python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4">
+        <v>10</v>
+      </c>
+      <c r="Z4">
+        <v>500</v>
+      </c>
+      <c r="AA4" s="20" t="str">
+        <f t="shared" ref="AA4:AA10" si="1">CONCATENATE("screen -S ", B4, ".test python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", X4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", Z4, " --fit_generator --n_figs ", Y4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>500</v>
+      </c>
+      <c r="AA5" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y6">
+        <v>10</v>
+      </c>
+      <c r="Z6">
+        <v>500</v>
+      </c>
+      <c r="AA6" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="20"/>
+      <c r="AD6" s="20"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="20"/>
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>500</v>
+      </c>
+      <c r="AA7" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB7" s="20"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y8">
+        <v>10</v>
+      </c>
+      <c r="Z8">
+        <v>500</v>
+      </c>
+      <c r="AA8" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9">
+        <v>10</v>
+      </c>
+      <c r="Z9">
+        <v>500</v>
+      </c>
+      <c r="AA9" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20"/>
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+      <c r="AK9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y10">
+        <v>10</v>
+      </c>
+      <c r="Z10">
+        <v>500</v>
+      </c>
+      <c r="AA10" s="20" t="str">
+        <f t="shared" si="1"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AK10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+    </row>
+    <row r="13" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+    </row>
+    <row r="14" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+    </row>
+    <row r="15" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+    </row>
+    <row r="16" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+    </row>
+    <row r="17" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+    </row>
+    <row r="18" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+    </row>
+    <row r="19" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="AA4:AI4"/>
+    <mergeCell ref="O14:W14"/>
+    <mergeCell ref="O15:W15"/>
+    <mergeCell ref="O16:W16"/>
+    <mergeCell ref="O17:W17"/>
+    <mergeCell ref="O18:W18"/>
+    <mergeCell ref="O19:W19"/>
+    <mergeCell ref="O9:W9"/>
+    <mergeCell ref="AA9:AI9"/>
+    <mergeCell ref="O10:W10"/>
+    <mergeCell ref="AA10:AI10"/>
+    <mergeCell ref="O12:W12"/>
+    <mergeCell ref="O13:W13"/>
+    <mergeCell ref="O6:W6"/>
+    <mergeCell ref="AA6:AI6"/>
+    <mergeCell ref="O7:W7"/>
+    <mergeCell ref="AA7:AI7"/>
+    <mergeCell ref="O8:W8"/>
+    <mergeCell ref="AA8:AI8"/>
+    <mergeCell ref="C1:W1"/>
+    <mergeCell ref="X1:AI1"/>
+    <mergeCell ref="M3:M10"/>
+    <mergeCell ref="N3:N10"/>
+    <mergeCell ref="O3:W3"/>
+    <mergeCell ref="O4:W4"/>
+    <mergeCell ref="AA3:AI3"/>
+    <mergeCell ref="O5:W5"/>
+    <mergeCell ref="AA5:AI5"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -15,8 +15,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="LorenzX" sheetId="2" r:id="rId2"/>
     <sheet name="Lorenz" sheetId="3" r:id="rId3"/>
-    <sheet name="FinancialTop80volume" sheetId="4" r:id="rId4"/>
-    <sheet name="FinancialTop80volumeX6" sheetId="5" r:id="rId5"/>
+    <sheet name="FinancialTop80volume_5min" sheetId="4" r:id="rId4"/>
+    <sheet name="FinancialTop80volumeX6_1h" sheetId="6" r:id="rId5"/>
+    <sheet name="FinancialTop80volumeX6_5min" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -443,32 +444,98 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>LINUX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINDOWS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinData-CR-G9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinData-CR-G10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolverStructure3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolverStructure1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SolverStructure1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RUNNING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0010</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0020</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</t>
-  </si>
-  <si>
-    <t>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0020' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</t>
+    <t>0020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0090</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>../model/FinancialTop80volumeX6.1h/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -635,7 +702,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -662,6 +729,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -707,6 +777,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,50 +1087,50 @@
   <sheetData>
     <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="16" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="16" t="s">
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="16" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
     </row>
     <row r="5" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1341,23 +1414,23 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="19"/>
-      <c r="S14" s="19"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
-      <c r="V14" s="19"/>
-      <c r="W14" s="19"/>
-      <c r="X14" s="19"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="19"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="19"/>
-      <c r="AC14" s="19"/>
-      <c r="AD14" s="19"/>
-      <c r="AE14" s="19"/>
-      <c r="AF14" s="19"/>
-      <c r="AG14" s="19"/>
-      <c r="AH14" s="19"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
+      <c r="AH14" s="20"/>
     </row>
     <row r="33" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -1503,15 +1576,15 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1542,42 +1615,42 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -1635,7 +1708,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1668,24 +1741,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="20" t="str">
+      <c r="N3" s="21" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 2 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
       <c r="W3" s="8" t="s">
         <v>106</v>
       </c>
@@ -1695,24 +1768,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="20" t="str">
+      <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0004' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1743,20 +1816,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="20" t="str">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G2 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1766,24 +1839,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="20" t="str">
+      <c r="Z4" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G2.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
       <c r="AI4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1814,20 +1887,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="20" t="str">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G3 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1837,24 +1910,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="20" t="str">
+      <c r="Z5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G3.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
       <c r="AI5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1885,20 +1958,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="20" t="str">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G4 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1908,24 +1981,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G4.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
       <c r="AI6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,20 +2029,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="20" t="str">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G5 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="8" t="s">
         <v>99</v>
       </c>
@@ -1979,24 +2052,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="20" t="str">
+      <c r="Z7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G5.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu.0050' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
       <c r="AI7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2027,20 +2100,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20" t="str">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G6 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="8" t="s">
         <v>100</v>
       </c>
@@ -2050,24 +2123,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G6.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu.0070' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
       <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2098,20 +2171,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="20" t="str">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G7 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="8" t="s">
         <v>101</v>
       </c>
@@ -2121,24 +2194,24 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G7.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
       <c r="AI9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2169,20 +2242,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20" t="str">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G8 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="8" t="s">
         <v>101</v>
       </c>
@@ -2192,194 +2265,180 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G8.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
       <c r="AI10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2396,6 +2455,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,42 +2490,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -2510,7 +2583,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2543,24 +2616,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="20" t="str">
+      <c r="N3" s="21" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S Lorenz-CR-G1 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
       <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
@@ -2570,24 +2643,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="20" t="str">
+      <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S Lorenz-CR-G1.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2618,20 +2691,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="20" t="str">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G2 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -2641,24 +2714,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="20" t="str">
+      <c r="Z4" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G2.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2689,20 +2762,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="20" t="str">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G3 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -2712,24 +2785,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="20" t="str">
+      <c r="Z5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G3.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2760,20 +2833,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="20" t="str">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G4 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2783,24 +2856,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G4.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
       <c r="AI6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2831,20 +2904,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="20" t="str">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G5 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="8" t="s">
         <v>102</v>
       </c>
@@ -2854,24 +2927,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="20" t="str">
+      <c r="Z7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G5.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
       <c r="AI7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -2902,20 +2975,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20" t="str">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G6 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="8" t="s">
         <v>69</v>
       </c>
@@ -2925,24 +2998,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G6.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
       <c r="AI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -2973,20 +3046,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="20" t="str">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G7 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="8" t="s">
         <v>69</v>
       </c>
@@ -2996,21 +3069,21 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G7.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3041,20 +3114,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20" t="str">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G8 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
@@ -3064,191 +3137,177 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G8.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="23"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="23"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3265,6 +3324,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3286,42 +3359,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
     </row>
     <row r="2" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -3409,24 +3482,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="23" t="s">
+      <c r="L3" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="23" t="s">
+      <c r="M3" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="20" t="str">
+      <c r="N3" s="21" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
       <c r="W3" s="8" t="s">
         <v>104</v>
       </c>
@@ -3436,18 +3509,18 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="20" t="str">
+      <c r="Z3" s="21" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
       <c r="AI3" t="s">
         <v>107</v>
       </c>
@@ -3483,20 +3556,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="20" t="str">
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G2 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
       <c r="W4" s="8" t="s">
         <v>105</v>
       </c>
@@ -3506,18 +3579,18 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="20" t="str">
+      <c r="Z4" s="21" t="str">
         <f>CONCATENATE("screen -S ", B4, ".test python lstm.keras.py ", E4, " ", C4, " --data_path '", $L$3, "' --model_path '", $M$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", W4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --data_scale --test --test_length ", Y4, " --n_figs ", X4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
@@ -3553,20 +3626,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="20" t="str">
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
       <c r="W5" s="8" t="s">
         <v>103</v>
       </c>
@@ -3576,18 +3649,18 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="20" t="str">
+      <c r="Z5" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
@@ -3623,20 +3696,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="20" t="str">
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
       <c r="W6" s="8" t="s">
         <v>103</v>
       </c>
@@ -3646,18 +3719,18 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="20" t="str">
+      <c r="Z6" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="20"/>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
       <c r="AI6" t="s">
         <v>108</v>
       </c>
@@ -3693,20 +3766,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="20" t="str">
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
       <c r="W7" s="8" t="s">
         <v>103</v>
       </c>
@@ -3716,18 +3789,18 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="20" t="str">
+      <c r="Z7" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="20"/>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="21"/>
+      <c r="AE7" s="21"/>
+      <c r="AF7" s="21"/>
+      <c r="AG7" s="21"/>
+      <c r="AH7" s="21"/>
       <c r="AI7" t="s">
         <v>109</v>
       </c>
@@ -3763,20 +3836,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="20" t="str">
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
       <c r="W8" s="8" t="s">
         <v>103</v>
       </c>
@@ -3786,18 +3859,18 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="20" t="str">
+      <c r="Z8" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="21"/>
       <c r="AI8" t="s">
         <v>110</v>
       </c>
@@ -3833,20 +3906,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="20" t="str">
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
       <c r="W9" s="8" t="s">
         <v>103</v>
       </c>
@@ -3856,18 +3929,18 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="20" t="str">
+      <c r="Z9" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21"/>
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21"/>
     </row>
     <row r="10" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3900,20 +3973,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="20" t="str">
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="21" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
       <c r="W10" s="8" t="s">
         <v>103</v>
       </c>
@@ -3923,146 +3996,134 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="20" t="str">
+      <c r="Z10" s="21" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
+      <c r="AA10" s="21"/>
+      <c r="AB10" s="21"/>
+      <c r="AC10" s="21"/>
+      <c r="AD10" s="21"/>
+      <c r="AE10" s="21"/>
+      <c r="AF10" s="21"/>
+      <c r="AG10" s="21"/>
+      <c r="AH10" s="21"/>
     </row>
     <row r="11" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
     <row r="13" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
     <row r="14" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
     <row r="15" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
     <row r="16" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4079,6 +4140,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4087,80 +4160,78 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AK19"/>
+  <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" x14ac:dyDescent="0.2">
-      <c r="C1" s="22" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C1" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-    </row>
-    <row r="2" spans="2:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="10" t="s">
         <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -4169,33 +4240,38 @@
       <c r="L2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="9"/>
-      <c r="X2" t="s">
+      <c r="O2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
         <v>67</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="R2" t="s">
         <v>65</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="S2" t="s">
         <v>66</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -4229,53 +4305,48 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="20" t="str">
-        <f>CONCATENATE("screen -S ", B3, " python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y3">
-        <v>10</v>
-      </c>
-      <c r="Z3">
+      <c r="M3" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3" s="25" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="25" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
         <v>500</v>
       </c>
-      <c r="AA3" s="20" t="str">
-        <f>CONCATENATE("screen -S ", B3, ".test python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", X3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", Z3, " --fit_generator --n_figs ", Y3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0020' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="20"/>
-      <c r="AD3" s="20"/>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T3" s="25" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U3" s="25" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4309,49 +4380,44 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="20" t="str">
-        <f t="shared" ref="O4:O10" si="0">CONCATENATE("screen -S ", B4, " python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y4">
-        <v>10</v>
-      </c>
-      <c r="Z4">
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25" t="str">
+        <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="25" t="str">
+        <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
         <v>500</v>
       </c>
-      <c r="AA4" s="20" t="str">
-        <f t="shared" ref="AA4:AA10" si="1">CONCATENATE("screen -S ", B4, ".test python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", X4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", Z4, " --fit_generator --n_figs ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-      <c r="AG4" s="20"/>
-      <c r="AH4" s="20"/>
-      <c r="AI4" s="20"/>
-      <c r="AJ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T4" s="25" t="str">
+        <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U4" s="25" t="str">
+        <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -4368,7 +4434,7 @@
         <v>100</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -4385,49 +4451,44 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="20" t="str">
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5">
-        <v>10</v>
-      </c>
-      <c r="Z5">
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
         <v>500</v>
       </c>
-      <c r="AA5" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="20"/>
-      <c r="AG5" s="20"/>
-      <c r="AH5" s="20"/>
-      <c r="AI5" s="20"/>
-      <c r="AJ5" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -4444,7 +4505,7 @@
         <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -4461,49 +4522,44 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="20" t="str">
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y6">
-        <v>10</v>
-      </c>
-      <c r="Z6">
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
         <v>500</v>
       </c>
-      <c r="AA6" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="20"/>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="20"/>
-      <c r="AI6" s="20"/>
-      <c r="AJ6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="7" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T6" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U6" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -4537,49 +4593,44 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="20" t="str">
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y7">
-        <v>10</v>
-      </c>
-      <c r="Z7">
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
         <v>500</v>
       </c>
-      <c r="AA7" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB7" s="20"/>
-      <c r="AC7" s="20"/>
-      <c r="AD7" s="20"/>
-      <c r="AE7" s="20"/>
-      <c r="AF7" s="20"/>
-      <c r="AG7" s="20"/>
-      <c r="AH7" s="20"/>
-      <c r="AI7" s="20"/>
-      <c r="AJ7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U7" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -4613,49 +4664,44 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="20" t="str">
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y8">
-        <v>10</v>
-      </c>
-      <c r="Z8">
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
         <v>500</v>
       </c>
-      <c r="AA8" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="20"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="20"/>
-      <c r="AG8" s="20"/>
-      <c r="AH8" s="20"/>
-      <c r="AI8" s="20"/>
-      <c r="AJ8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U8" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -4689,46 +4735,44 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="20" t="str">
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y9">
-        <v>10</v>
-      </c>
-      <c r="Z9">
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
         <v>500</v>
       </c>
-      <c r="AA9" s="20" t="str">
-        <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20"/>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20"/>
-      <c r="AI9" s="20"/>
-      <c r="AK9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U9" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4745,7 +4789,7 @@
         <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -4762,190 +4806,1163 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="20" t="str">
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y10">
-        <v>10</v>
-      </c>
-      <c r="Z10">
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
         <v>500</v>
       </c>
-      <c r="AA10" s="20" t="str">
+      <c r="T10" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U10" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P11" s="25" t="str">
         <f t="shared" si="1"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-      <c r="AH10" s="20"/>
-      <c r="AI10" s="20"/>
-      <c r="AK10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U11" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>500</v>
+      </c>
+      <c r="T12" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U12" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+    </row>
+    <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-    </row>
-    <row r="13" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-    </row>
-    <row r="14" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-    </row>
-    <row r="15" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-    </row>
-    <row r="16" spans="2:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-    </row>
-    <row r="17" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-    </row>
-    <row r="18" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-    </row>
-    <row r="19" spans="2:23" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="AA4:AI4"/>
-    <mergeCell ref="O14:W14"/>
-    <mergeCell ref="O15:W15"/>
-    <mergeCell ref="O16:W16"/>
-    <mergeCell ref="O17:W17"/>
-    <mergeCell ref="O18:W18"/>
-    <mergeCell ref="O19:W19"/>
-    <mergeCell ref="O9:W9"/>
-    <mergeCell ref="AA9:AI9"/>
-    <mergeCell ref="O10:W10"/>
-    <mergeCell ref="AA10:AI10"/>
-    <mergeCell ref="O12:W12"/>
-    <mergeCell ref="O13:W13"/>
-    <mergeCell ref="O6:W6"/>
-    <mergeCell ref="AA6:AI6"/>
-    <mergeCell ref="O7:W7"/>
-    <mergeCell ref="AA7:AI7"/>
-    <mergeCell ref="O8:W8"/>
-    <mergeCell ref="AA8:AI8"/>
-    <mergeCell ref="C1:W1"/>
-    <mergeCell ref="X1:AI1"/>
-    <mergeCell ref="M3:M10"/>
-    <mergeCell ref="N3:N10"/>
-    <mergeCell ref="O3:W3"/>
-    <mergeCell ref="O4:W4"/>
-    <mergeCell ref="AA3:AI3"/>
-    <mergeCell ref="O5:W5"/>
-    <mergeCell ref="AA5:AI5"/>
+  <mergeCells count="12">
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="15" max="15" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.75" customWidth="1"/>
+    <col min="21" max="21" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="25" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="25" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3" s="25" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U3" s="25" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+    </row>
+    <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25" t="str">
+        <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="25" t="str">
+        <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>500</v>
+      </c>
+      <c r="T4" s="25" t="str">
+        <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U4" s="25" t="str">
+        <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="25"/>
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+      <c r="AA4" s="25"/>
+      <c r="AB4" s="25"/>
+    </row>
+    <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>500</v>
+      </c>
+      <c r="T5" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U5" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="25"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
+    </row>
+    <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U6" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="25"/>
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+      <c r="AA6" s="25"/>
+      <c r="AB6" s="25"/>
+    </row>
+    <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>500</v>
+      </c>
+      <c r="T7" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U7" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+    </row>
+    <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U8" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+    </row>
+    <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U9" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V9" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U10" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="25"/>
+      <c r="AB10" s="25"/>
+    </row>
+    <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P11" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U11" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V11" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="25"/>
+    </row>
+    <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="25" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P12" s="25" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>500</v>
+      </c>
+      <c r="T12" s="25" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U12" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V12" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+    </row>
+    <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+    <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+    </row>
+    <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+    </row>
+    <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+    </row>
+    <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26812"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\Time-series-autoregressive-prediction\demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duxin/Codes/Time-series-autoregressive-prediction/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23970" windowHeight="8820" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,15 @@
     <sheet name="FinancialTop80volume_5min" sheetId="4" r:id="rId4"/>
     <sheet name="FinancialTop80volumeX6_1h" sheetId="6" r:id="rId5"/>
     <sheet name="FinancialTop80volumeX6_5min" sheetId="5" r:id="rId6"/>
+    <sheet name="Financial.Top80.lrets.norm.1h" sheetId="7" r:id="rId7"/>
+    <sheet name="Financial.Top80.lrets.norm.5m" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -537,17 +542,29 @@
   <si>
     <t>../model/FinancialTop80volumeX6.1h/</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy</t>
+  </si>
+  <si>
+    <t>../model/Financial.Top80.lrets.norm.1h/</t>
+  </si>
+  <si>
+    <t>../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy</t>
+  </si>
+  <si>
+    <t>../model/Financial.Top80.lrets.norm.5m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,7 +577,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -702,7 +719,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +752,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -778,12 +801,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1063,76 +1083,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AH44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
-    <col min="10" max="10" width="10.875" customWidth="1"/>
-    <col min="11" max="11" width="11.125" customWidth="1"/>
-    <col min="12" max="12" width="11.625" customWidth="1"/>
-    <col min="13" max="13" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="11.83203125" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
-    <col min="17" max="17" width="14.875" customWidth="1"/>
-    <col min="23" max="23" width="13.875" customWidth="1"/>
-    <col min="25" max="25" width="9.875" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" customWidth="1"/>
+    <col min="25" max="25" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="22" t="s">
+    <row r="2" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22" t="s">
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-    </row>
-    <row r="4" spans="2:34" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+    </row>
+    <row r="4" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="17" t="s">
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="18"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="17" t="s">
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="20"/>
+      <c r="P4" s="21"/>
+    </row>
+    <row r="5" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,7 +1183,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>41</v>
       </c>
@@ -1194,7 +1214,7 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1225,7 +1245,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>42</v>
       </c>
@@ -1256,7 +1276,7 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1287,7 +1307,7 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1318,7 +1338,7 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>44</v>
       </c>
@@ -1349,7 +1369,7 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="2:34" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>44</v>
       </c>
@@ -1414,23 +1434,23 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
-      <c r="AH14" s="20"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
     </row>
     <row r="33" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -1576,15 +1596,15 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
+      <c r="N44" s="23"/>
+      <c r="O44" s="23"/>
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23"/>
+      <c r="R44" s="23"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="23"/>
+      <c r="U44" s="23"/>
+      <c r="V44" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1612,45 +1632,45 @@
       <selection activeCell="Z9" sqref="Z9:AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -1708,7 +1728,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1741,24 +1761,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="21" t="str">
+      <c r="N3" s="23" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 2 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
       <c r="W3" s="8" t="s">
         <v>106</v>
       </c>
@@ -1768,24 +1788,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="21" t="str">
+      <c r="Z3" s="23" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0004' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1816,20 +1836,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="21" t="str">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G2 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1839,24 +1859,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="21" t="str">
+      <c r="Z4" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G2.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
       <c r="AI4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1887,20 +1907,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="21" t="str">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G3 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1910,24 +1930,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="21" t="str">
+      <c r="Z5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G3.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
       <c r="AI5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1958,20 +1978,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="21" t="str">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G4 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -1981,24 +2001,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="21" t="str">
+      <c r="Z6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G4.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
       <c r="AI6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2029,20 +2049,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="21" t="str">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G5 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="8" t="s">
         <v>99</v>
       </c>
@@ -2052,24 +2072,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="21" t="str">
+      <c r="Z7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G5.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu.0050' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
       <c r="AI7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2100,20 +2120,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="21" t="str">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G6 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="8" t="s">
         <v>100</v>
       </c>
@@ -2123,24 +2143,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="21" t="str">
+      <c r="Z8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G6.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu.0070' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
       <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2171,20 +2191,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="21" t="str">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G7 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="8" t="s">
         <v>101</v>
       </c>
@@ -2194,24 +2214,24 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="21" t="str">
+      <c r="Z9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G7.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
       <c r="AI9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2242,20 +2262,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="21" t="str">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G8 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="8" t="s">
         <v>101</v>
       </c>
@@ -2265,180 +2285,194 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="21" t="str">
+      <c r="Z10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G8.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
       <c r="AI10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2455,20 +2489,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2484,48 +2504,48 @@
       <selection activeCell="AI9" sqref="AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -2583,7 +2603,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2616,24 +2636,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="21" t="str">
+      <c r="N3" s="23" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S Lorenz-CR-G1 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
       <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
@@ -2643,24 +2663,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="21" t="str">
+      <c r="Z3" s="23" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S Lorenz-CR-G1.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2691,20 +2711,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="21" t="str">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G2 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -2714,24 +2734,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="21" t="str">
+      <c r="Z4" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G2.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2762,20 +2782,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="21" t="str">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G3 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -2785,24 +2805,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="21" t="str">
+      <c r="Z5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G3.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2833,20 +2853,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="21" t="str">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G4 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2856,24 +2876,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="21" t="str">
+      <c r="Z6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G4.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
       <c r="AI6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2904,20 +2924,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="21" t="str">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G5 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="8" t="s">
         <v>102</v>
       </c>
@@ -2927,24 +2947,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="21" t="str">
+      <c r="Z7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G5.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
       <c r="AI7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -2975,20 +2995,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="21" t="str">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G6 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="8" t="s">
         <v>69</v>
       </c>
@@ -2998,24 +3018,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="21" t="str">
+      <c r="Z8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G6.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
       <c r="AI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3046,20 +3066,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="21" t="str">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G7 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="8" t="s">
         <v>69</v>
       </c>
@@ -3069,21 +3089,21 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="21" t="str">
+      <c r="Z9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G7.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3114,20 +3134,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="21" t="str">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G8 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
@@ -3137,177 +3157,191 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="21" t="str">
+      <c r="Z10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G8.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
+      <c r="A11" s="25"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3324,20 +3358,6 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3353,48 +3373,48 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="25"/>
+      <c r="AG1" s="25"/>
+      <c r="AH1" s="25"/>
     </row>
     <row r="2" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -3482,24 +3502,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="21" t="str">
+      <c r="N3" s="23" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
       <c r="W3" s="8" t="s">
         <v>104</v>
       </c>
@@ -3509,18 +3529,18 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="21" t="str">
+      <c r="Z3" s="23" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="21"/>
-      <c r="AB3" s="21"/>
-      <c r="AC3" s="21"/>
-      <c r="AD3" s="21"/>
-      <c r="AE3" s="21"/>
-      <c r="AF3" s="21"/>
-      <c r="AG3" s="21"/>
-      <c r="AH3" s="21"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
       <c r="AI3" t="s">
         <v>107</v>
       </c>
@@ -3556,20 +3576,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="21" t="str">
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G2 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
       <c r="W4" s="8" t="s">
         <v>105</v>
       </c>
@@ -3579,18 +3599,18 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="21" t="str">
+      <c r="Z4" s="23" t="str">
         <f>CONCATENATE("screen -S ", B4, ".test python lstm.keras.py ", E4, " ", C4, " --data_path '", $L$3, "' --model_path '", $M$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", W4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --data_scale --test --test_length ", Y4, " --n_figs ", X4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="21"/>
-      <c r="AH4" s="21"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
@@ -3626,20 +3646,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="21" t="str">
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
       <c r="W5" s="8" t="s">
         <v>103</v>
       </c>
@@ -3649,18 +3669,18 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="21" t="str">
+      <c r="Z5" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="21"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="23"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
@@ -3696,20 +3716,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="21" t="str">
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
       <c r="W6" s="8" t="s">
         <v>103</v>
       </c>
@@ -3719,18 +3739,18 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="21" t="str">
+      <c r="Z6" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="21"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="23"/>
       <c r="AI6" t="s">
         <v>108</v>
       </c>
@@ -3766,20 +3786,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="21" t="str">
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
       <c r="W7" s="8" t="s">
         <v>103</v>
       </c>
@@ -3789,18 +3809,18 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="21" t="str">
+      <c r="Z7" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="21"/>
-      <c r="AE7" s="21"/>
-      <c r="AF7" s="21"/>
-      <c r="AG7" s="21"/>
-      <c r="AH7" s="21"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="23"/>
       <c r="AI7" t="s">
         <v>109</v>
       </c>
@@ -3836,20 +3856,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="21" t="str">
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
       <c r="W8" s="8" t="s">
         <v>103</v>
       </c>
@@ -3859,18 +3879,18 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="21" t="str">
+      <c r="Z8" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="21"/>
+      <c r="AA8" s="23"/>
+      <c r="AB8" s="23"/>
+      <c r="AC8" s="23"/>
+      <c r="AD8" s="23"/>
+      <c r="AE8" s="23"/>
+      <c r="AF8" s="23"/>
+      <c r="AG8" s="23"/>
+      <c r="AH8" s="23"/>
       <c r="AI8" t="s">
         <v>110</v>
       </c>
@@ -3906,20 +3926,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="21" t="str">
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
       <c r="W9" s="8" t="s">
         <v>103</v>
       </c>
@@ -3929,18 +3949,18 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="21" t="str">
+      <c r="Z9" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21"/>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
     </row>
     <row r="10" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3973,20 +3993,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="21" t="str">
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
       <c r="W10" s="8" t="s">
         <v>103</v>
       </c>
@@ -3996,134 +4016,146 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="21" t="str">
+      <c r="Z10" s="23" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="21"/>
-      <c r="AB10" s="21"/>
-      <c r="AC10" s="21"/>
-      <c r="AD10" s="21"/>
-      <c r="AE10" s="21"/>
-      <c r="AF10" s="21"/>
-      <c r="AG10" s="21"/>
-      <c r="AH10" s="21"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
     </row>
     <row r="13" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
     </row>
     <row r="15" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4140,18 +4172,6 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4162,51 +4182,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -4305,17 +4325,17 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="O3" s="25" t="str">
+      <c r="O3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
-      <c r="P3" s="25" t="str">
+      <c r="P3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
@@ -4328,23 +4348,23 @@
       <c r="S3">
         <v>500</v>
       </c>
-      <c r="T3" s="25" t="str">
+      <c r="T3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U3" s="25" t="str">
+      <c r="U3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -4380,13 +4400,13 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
-      <c r="P4" s="25" t="str">
+      <c r="P4" s="12" t="str">
         <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
@@ -4399,23 +4419,23 @@
       <c r="S4">
         <v>500</v>
       </c>
-      <c r="T4" s="25" t="str">
+      <c r="T4" s="12" t="str">
         <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U4" s="25" t="str">
+      <c r="U4" s="12" t="str">
         <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V4" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
     <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -4451,13 +4471,13 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="str">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
-      <c r="P5" s="25" t="str">
+      <c r="P5" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
@@ -4470,23 +4490,23 @@
       <c r="S5">
         <v>500</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="T5" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U5" s="25" t="str">
+      <c r="U5" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V5" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
     </row>
     <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -4522,13 +4542,13 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25" t="str">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
-      <c r="P6" s="25" t="str">
+      <c r="P6" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
@@ -4541,23 +4561,23 @@
       <c r="S6">
         <v>500</v>
       </c>
-      <c r="T6" s="25" t="str">
+      <c r="T6" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U6" s="25" t="str">
+      <c r="U6" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V6" t="s">
         <v>121</v>
       </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
     </row>
     <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -4593,13 +4613,13 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25" t="str">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
-      <c r="P7" s="25" t="str">
+      <c r="P7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
@@ -4612,23 +4632,23 @@
       <c r="S7">
         <v>500</v>
       </c>
-      <c r="T7" s="25" t="str">
+      <c r="T7" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="U7" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V7" t="s">
         <v>122</v>
       </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -4664,13 +4684,13 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25" t="str">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
-      <c r="P8" s="25" t="str">
+      <c r="P8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
@@ -4683,23 +4703,23 @@
       <c r="S8">
         <v>500</v>
       </c>
-      <c r="T8" s="25" t="str">
+      <c r="T8" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U8" s="25" t="str">
+      <c r="U8" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V8" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -4735,13 +4755,13 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25" t="str">
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
-      <c r="P9" s="25" t="str">
+      <c r="P9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
@@ -4754,23 +4774,23 @@
       <c r="S9">
         <v>500</v>
       </c>
-      <c r="T9" s="25" t="str">
+      <c r="T9" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U9" s="25" t="str">
+      <c r="U9" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="V9" s="25" t="s">
+      <c r="V9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
     </row>
     <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -4806,13 +4826,13 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25" t="str">
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
-      <c r="P10" s="25" t="str">
+      <c r="P10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
@@ -4825,23 +4845,23 @@
       <c r="S10">
         <v>500</v>
       </c>
-      <c r="T10" s="25" t="str">
+      <c r="T10" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U10" s="25" t="str">
+      <c r="U10" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="V10" s="25" t="s">
+      <c r="V10" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
     </row>
     <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -4877,13 +4897,13 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25" t="str">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
-      <c r="P11" s="25" t="str">
+      <c r="P11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
@@ -4896,23 +4916,23 @@
       <c r="S11">
         <v>500</v>
       </c>
-      <c r="T11" s="25" t="str">
+      <c r="T11" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U11" s="25" t="str">
+      <c r="U11" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="V11" s="25" t="s">
+      <c r="V11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
     </row>
     <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -4948,13 +4968,13 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25" t="str">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
-      <c r="P12" s="25" t="str">
+      <c r="P12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
@@ -4967,80 +4987,1889 @@
       <c r="S12">
         <v>500</v>
       </c>
-      <c r="T12" s="25" t="str">
+      <c r="T12" s="12" t="str">
         <f t="shared" si="2"/>
         <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="U12" s="25" t="str">
+      <c r="U12" s="12" t="str">
         <f t="shared" si="3"/>
         <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
-      <c r="V12" s="25" t="s">
+      <c r="V12" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
     </row>
     <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+    </row>
+    <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>116</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="12" t="str">
+        <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="12" t="str">
+        <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>500</v>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U4" s="12" t="str">
+        <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>20</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>500</v>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>121</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>500</v>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>122</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10" s="2">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>500</v>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB21"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3:N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="25.5" customWidth="1"/>
+    <col min="16" max="16" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C1" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+    </row>
+    <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="P2" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S2" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" t="s">
+        <v>114</v>
+      </c>
+      <c r="U2" t="s">
+        <v>115</v>
+      </c>
+      <c r="V2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="O3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R3">
+        <v>10</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V3" t="s">
+        <v>118</v>
+      </c>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="12" t="str">
+        <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="12" t="str">
+        <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R4">
+        <v>10</v>
+      </c>
+      <c r="S4">
+        <v>500</v>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U4" s="12" t="str">
+        <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V4" t="s">
+        <v>119</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>500</v>
+      </c>
+      <c r="T5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V5" t="s">
+        <v>120</v>
+      </c>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>300</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6">
+        <v>10</v>
+      </c>
+      <c r="S6">
+        <v>500</v>
+      </c>
+      <c r="T6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V6" t="s">
+        <v>120</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="R7">
+        <v>10</v>
+      </c>
+      <c r="S7">
+        <v>500</v>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V7" t="s">
+        <v>120</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>300</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>64</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="R8">
+        <v>10</v>
+      </c>
+      <c r="S8">
+        <v>500</v>
+      </c>
+      <c r="T8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V8" t="s">
+        <v>123</v>
+      </c>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" s="2">
+        <v>10</v>
+      </c>
+      <c r="J9" s="2">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2">
+        <v>64</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>500</v>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>300</v>
+      </c>
+      <c r="G10" t="s">
+        <v>127</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>64</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+      <c r="T10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>300</v>
+      </c>
+      <c r="F11">
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>64</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11">
+        <v>10</v>
+      </c>
+      <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>600</v>
+      </c>
+      <c r="F12">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>129</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>64</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="R12">
+        <v>10</v>
+      </c>
+      <c r="S12">
+        <v>500</v>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+    </row>
+    <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+    </row>
+    <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+    </row>
+    <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+    </row>
+    <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+    </row>
+    <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+    </row>
+    <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5057,85 +6886,84 @@
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="15" max="15" width="25.5" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
-    <col min="20" max="20" width="12.75" customWidth="1"/>
-    <col min="21" max="21" width="10.25" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -5144,16 +6972,16 @@
       <c r="L2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="11" t="s">
         <v>115</v>
       </c>
       <c r="Q2" t="s">
@@ -5169,7 +6997,7 @@
         <v>114</v>
       </c>
       <c r="U2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V2" t="s">
         <v>75</v>
@@ -5198,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J3" s="2">
         <v>10</v>
@@ -5209,19 +7037,19 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="O3" s="25" t="str">
+      <c r="M3" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="P3" s="25" t="str">
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>134</v>
@@ -5232,23 +7060,23 @@
       <c r="S3">
         <v>500</v>
       </c>
-      <c r="T3" s="25" t="str">
+      <c r="T3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U3" s="25" t="str">
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V3" t="s">
         <v>118</v>
       </c>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="25"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
     </row>
     <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -5273,7 +7101,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>10</v>
@@ -5284,15 +7112,15 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25" t="str">
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="P4" s="25" t="str">
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P4" s="12" t="str">
         <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>135</v>
@@ -5303,23 +7131,23 @@
       <c r="S4">
         <v>500</v>
       </c>
-      <c r="T4" s="25" t="str">
+      <c r="T4" s="12" t="str">
         <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U4" s="25" t="str">
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U4" s="12" t="str">
         <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V4" t="s">
         <v>119</v>
       </c>
-      <c r="W4" s="25"/>
-      <c r="X4" s="25"/>
-      <c r="Y4" s="25"/>
-      <c r="Z4" s="25"/>
-      <c r="AA4" s="25"/>
-      <c r="AB4" s="25"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
     </row>
     <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -5344,7 +7172,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
@@ -5355,15 +7183,15 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25" t="str">
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="P5" s="25" t="str">
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>131</v>
@@ -5374,23 +7202,23 @@
       <c r="S5">
         <v>500</v>
       </c>
-      <c r="T5" s="25" t="str">
+      <c r="T5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U5" s="25" t="str">
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V5" t="s">
         <v>120</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
     </row>
     <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
@@ -5415,7 +7243,7 @@
         <v>3</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>10</v>
@@ -5426,15 +7254,15 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25" t="str">
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="P6" s="25" t="str">
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>117</v>
@@ -5445,23 +7273,23 @@
       <c r="S6">
         <v>500</v>
       </c>
-      <c r="T6" s="25" t="str">
+      <c r="T6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U6" s="25" t="str">
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V6" t="s">
-        <v>121</v>
-      </c>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="25"/>
-      <c r="AB6" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
     </row>
     <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
@@ -5486,7 +7314,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J7" s="2">
         <v>10</v>
@@ -5497,15 +7325,15 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="25" t="str">
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="P7" s="25" t="str">
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>132</v>
@@ -5516,23 +7344,23 @@
       <c r="S7">
         <v>500</v>
       </c>
-      <c r="T7" s="25" t="str">
+      <c r="T7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U7" s="25" t="str">
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V7" t="s">
-        <v>122</v>
-      </c>
-      <c r="W7" s="25"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="25"/>
-      <c r="AB7" s="25"/>
+        <v>120</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -5557,7 +7385,7 @@
         <v>1</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>10</v>
@@ -5568,15 +7396,15 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="25" t="str">
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="P8" s="25" t="str">
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>133</v>
@@ -5587,23 +7415,23 @@
       <c r="S8">
         <v>500</v>
       </c>
-      <c r="T8" s="25" t="str">
+      <c r="T8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U8" s="25" t="str">
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V8" t="s">
         <v>123</v>
       </c>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
-      <c r="AA8" s="25"/>
-      <c r="AB8" s="25"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
     </row>
     <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
@@ -5639,15 +7467,15 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="25" t="str">
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="P9" s="25" t="str">
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="P9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>117</v>
@@ -5658,23 +7486,23 @@
       <c r="S9">
         <v>500</v>
       </c>
-      <c r="T9" s="25" t="str">
+      <c r="T9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U9" s="25" t="str">
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="V9" s="25" t="s">
-        <v>124</v>
-      </c>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="25"/>
-      <c r="AB9" s="25"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
     </row>
     <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -5710,15 +7538,15 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="25" t="str">
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="P10" s="25" t="str">
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="P10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>117</v>
@@ -5729,23 +7557,23 @@
       <c r="S10">
         <v>500</v>
       </c>
-      <c r="T10" s="25" t="str">
+      <c r="T10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U10" s="25" t="str">
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="V10" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="25"/>
-      <c r="AB10" s="25"/>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
     </row>
     <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
@@ -5781,15 +7609,15 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25" t="str">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="P11" s="25" t="str">
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="P11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>117</v>
@@ -5800,23 +7628,23 @@
       <c r="S11">
         <v>500</v>
       </c>
-      <c r="T11" s="25" t="str">
+      <c r="T11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U11" s="25" t="str">
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="V11" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="25"/>
-      <c r="AB11" s="25"/>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
     </row>
     <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
@@ -5852,15 +7680,15 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="24"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="25" t="str">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="P12" s="25" t="str">
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="P12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>117</v>
@@ -5871,97 +7699,96 @@
       <c r="S12">
         <v>500</v>
       </c>
-      <c r="T12" s="25" t="str">
+      <c r="T12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="U12" s="25" t="str">
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="U12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
-      </c>
-      <c r="V12" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
-      <c r="AA12" s="25"/>
-      <c r="AB12" s="25"/>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
     </row>
     <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="Q1:AB1"/>
     <mergeCell ref="M3:M12"/>
     <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,10 @@
     <sheet name="FinancialTop80volume_5min" sheetId="4" r:id="rId4"/>
     <sheet name="FinancialTop80volumeX6_1h" sheetId="6" r:id="rId5"/>
     <sheet name="FinancialTop80volumeX6_5min" sheetId="5" r:id="rId6"/>
-    <sheet name="Financial.Top80.lrets.norm.1h" sheetId="7" r:id="rId7"/>
-    <sheet name="Financial.Top80.lrets.norm.5m" sheetId="8" r:id="rId8"/>
+    <sheet name="Financial.Top80X6.lrets.norm.1h" sheetId="7" r:id="rId7"/>
+    <sheet name="Financial.Top80X6.lrets.norm.5m" sheetId="8" r:id="rId8"/>
+    <sheet name="lstm.v3.NYSEtop80.1h" sheetId="9" r:id="rId9"/>
+    <sheet name="lstm.v3.NYSEtop80.5min" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="152">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -547,13 +549,43 @@
     <t>../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy</t>
   </si>
   <si>
-    <t>../model/Financial.Top80.lrets.norm.1h/</t>
-  </si>
-  <si>
     <t>../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy</t>
   </si>
   <si>
-    <t>../model/Financial.Top80.lrets.norm.5m</t>
+    <t>../model/Financial.Top80X6.lrets.norm.5m</t>
+  </si>
+  <si>
+    <t>../model/Financial.Top80X6.lrets.norm.1h/</t>
+  </si>
+  <si>
+    <t>0030</t>
+  </si>
+  <si>
+    <t>train_path</t>
+  </si>
+  <si>
+    <t>valid_path</t>
+  </si>
+  <si>
+    <t>../data/NYSEtop80.1h.preprcd/train.npy</t>
+  </si>
+  <si>
+    <t>../data/NYSEtop80.1h.preprcd/valid.1.npy</t>
+  </si>
+  <si>
+    <t>../model/NYSEtop80.1h.1chan/model</t>
+  </si>
+  <si>
+    <t>test_path</t>
+  </si>
+  <si>
+    <t>../data/NYSEtop80.1h.preprcd/test.1.npy</t>
+  </si>
+  <si>
+    <t>n_classes</t>
+  </si>
+  <si>
+    <t>montecarlo</t>
   </si>
 </sst>
 </file>
@@ -719,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,6 +790,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -800,6 +841,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,50 +1151,50 @@
   <sheetData>
     <row r="2" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="24" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24" t="s">
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
     </row>
     <row r="4" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="19" t="s">
+      <c r="F4" s="23"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="19" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="20"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="19" t="s">
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="21"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="24"/>
     </row>
     <row r="5" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1434,23 +1478,23 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
-      <c r="U14" s="22"/>
-      <c r="V14" s="22"/>
-      <c r="W14" s="22"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
-      <c r="AH14" s="22"/>
+      <c r="R14" s="25"/>
+      <c r="S14" s="25"/>
+      <c r="T14" s="25"/>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
     </row>
     <row r="33" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -1596,15 +1640,15 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1624,6 +1668,18 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI19"/>
@@ -1635,42 +1691,42 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -1728,7 +1784,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1761,24 +1817,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="23" t="str">
+      <c r="N3" s="26" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 2 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="8" t="s">
         <v>106</v>
       </c>
@@ -1788,24 +1844,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="23" t="str">
+      <c r="Z3" s="26" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0004' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1836,20 +1892,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23" t="str">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G2 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1859,24 +1915,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="23" t="str">
+      <c r="Z4" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G2.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
       <c r="AI4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1907,20 +1963,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="23" t="str">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G3 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1930,24 +1986,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="23" t="str">
+      <c r="Z5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G3.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
       <c r="AI5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1978,20 +2034,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="23" t="str">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G4 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2001,24 +2057,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="23" t="str">
+      <c r="Z6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G4.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
       <c r="AI6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2049,20 +2105,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="23" t="str">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G5 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="8" t="s">
         <v>99</v>
       </c>
@@ -2072,24 +2128,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="23" t="str">
+      <c r="Z7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G5.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu.0050' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
       <c r="AI7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2120,20 +2176,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="23" t="str">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G6 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
       <c r="W8" s="8" t="s">
         <v>100</v>
       </c>
@@ -2143,24 +2199,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="23" t="str">
+      <c r="Z8" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G6.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu.0070' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
       <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2191,20 +2247,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="23" t="str">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G7 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
       <c r="W9" s="8" t="s">
         <v>101</v>
       </c>
@@ -2214,24 +2270,24 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="23" t="str">
+      <c r="Z9" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G7.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
       <c r="AI9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2262,20 +2318,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="23" t="str">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G8 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="8" t="s">
         <v>101</v>
       </c>
@@ -2285,177 +2341,177 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="23" t="str">
+      <c r="Z10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G8.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
       <c r="AI10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="A11" s="28"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -2510,42 +2566,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -2603,7 +2659,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2636,24 +2692,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="23" t="str">
+      <c r="N3" s="26" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S Lorenz-CR-G1 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
@@ -2663,24 +2719,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="23" t="str">
+      <c r="Z3" s="26" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S Lorenz-CR-G1.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2711,20 +2767,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23" t="str">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G2 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -2734,24 +2790,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="23" t="str">
+      <c r="Z4" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G2.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2782,20 +2838,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="23" t="str">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G3 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -2805,24 +2861,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="23" t="str">
+      <c r="Z5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G3.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="28"/>
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2853,20 +2909,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="23" t="str">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G4 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2876,24 +2932,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="23" t="str">
+      <c r="Z6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G4.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
       <c r="AI6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2924,20 +2980,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="23" t="str">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G5 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="8" t="s">
         <v>102</v>
       </c>
@@ -2947,24 +3003,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="23" t="str">
+      <c r="Z7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G5.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
       <c r="AI7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -2995,20 +3051,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="23" t="str">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G6 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
       <c r="W8" s="8" t="s">
         <v>69</v>
       </c>
@@ -3018,24 +3074,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="23" t="str">
+      <c r="Z8" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G6.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
       <c r="AI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3066,20 +3122,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="23" t="str">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G7 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
       <c r="W9" s="8" t="s">
         <v>69</v>
       </c>
@@ -3089,21 +3145,21 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="23" t="str">
+      <c r="Z9" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G7.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3134,20 +3190,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="23" t="str">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G8 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
@@ -3157,174 +3213,174 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="23" t="str">
+      <c r="Z10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G8.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
+      <c r="A11" s="28"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="28"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="28"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="28"/>
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -3379,42 +3435,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
-      <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="25"/>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="25"/>
-      <c r="AH1" s="25"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
     </row>
     <row r="2" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -3502,24 +3558,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="23" t="str">
+      <c r="N3" s="26" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="8" t="s">
         <v>104</v>
       </c>
@@ -3529,18 +3585,18 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="23" t="str">
+      <c r="Z3" s="26" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
       <c r="AI3" t="s">
         <v>107</v>
       </c>
@@ -3576,20 +3632,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="23" t="str">
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G2 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="8" t="s">
         <v>105</v>
       </c>
@@ -3599,18 +3655,18 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="23" t="str">
+      <c r="Z4" s="26" t="str">
         <f>CONCATENATE("screen -S ", B4, ".test python lstm.keras.py ", E4, " ", C4, " --data_path '", $L$3, "' --model_path '", $M$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", W4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --data_scale --test --test_length ", Y4, " --n_figs ", X4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
@@ -3646,20 +3702,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="23" t="str">
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="8" t="s">
         <v>103</v>
       </c>
@@ -3669,18 +3725,18 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="23" t="str">
+      <c r="Z5" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
@@ -3716,20 +3772,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="23" t="str">
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
       <c r="W6" s="8" t="s">
         <v>103</v>
       </c>
@@ -3739,18 +3795,18 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="23" t="str">
+      <c r="Z6" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
+      <c r="AA6" s="26"/>
+      <c r="AB6" s="26"/>
+      <c r="AC6" s="26"/>
+      <c r="AD6" s="26"/>
+      <c r="AE6" s="26"/>
+      <c r="AF6" s="26"/>
+      <c r="AG6" s="26"/>
+      <c r="AH6" s="26"/>
       <c r="AI6" t="s">
         <v>108</v>
       </c>
@@ -3786,20 +3842,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="23" t="str">
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="8" t="s">
         <v>103</v>
       </c>
@@ -3809,18 +3865,18 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="23" t="str">
+      <c r="Z7" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="23"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
       <c r="AI7" t="s">
         <v>109</v>
       </c>
@@ -3856,20 +3912,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="23" t="str">
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
       <c r="W8" s="8" t="s">
         <v>103</v>
       </c>
@@ -3879,18 +3935,18 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="23" t="str">
+      <c r="Z8" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="23"/>
-      <c r="AC8" s="23"/>
-      <c r="AD8" s="23"/>
-      <c r="AE8" s="23"/>
-      <c r="AF8" s="23"/>
-      <c r="AG8" s="23"/>
-      <c r="AH8" s="23"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
       <c r="AI8" t="s">
         <v>110</v>
       </c>
@@ -3926,20 +3982,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="23" t="str">
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
       <c r="W9" s="8" t="s">
         <v>103</v>
       </c>
@@ -3949,18 +4005,18 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="23" t="str">
+      <c r="Z9" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="23"/>
-      <c r="AB9" s="23"/>
-      <c r="AC9" s="23"/>
-      <c r="AD9" s="23"/>
-      <c r="AE9" s="23"/>
-      <c r="AF9" s="23"/>
-      <c r="AG9" s="23"/>
-      <c r="AH9" s="23"/>
+      <c r="AA9" s="26"/>
+      <c r="AB9" s="26"/>
+      <c r="AC9" s="26"/>
+      <c r="AD9" s="26"/>
+      <c r="AE9" s="26"/>
+      <c r="AF9" s="26"/>
+      <c r="AG9" s="26"/>
+      <c r="AH9" s="26"/>
     </row>
     <row r="10" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -3993,20 +4049,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="23" t="str">
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="26" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="8" t="s">
         <v>103</v>
       </c>
@@ -4016,131 +4072,131 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="23" t="str">
+      <c r="Z10" s="26" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="23"/>
-      <c r="AB10" s="23"/>
-      <c r="AC10" s="23"/>
-      <c r="AD10" s="23"/>
-      <c r="AE10" s="23"/>
-      <c r="AF10" s="23"/>
-      <c r="AG10" s="23"/>
-      <c r="AH10" s="23"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="26"/>
+      <c r="AC10" s="26"/>
+      <c r="AD10" s="26"/>
+      <c r="AE10" s="26"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="26"/>
+      <c r="AH10" s="26"/>
     </row>
     <row r="11" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
     </row>
     <row r="13" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
     </row>
     <row r="14" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
     </row>
     <row r="15" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -4197,36 +4253,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -4325,10 +4381,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="29" t="s">
         <v>137</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -4400,8 +4456,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -4471,8 +4527,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -4542,8 +4598,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -4613,8 +4669,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -4684,8 +4740,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -4755,8 +4811,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -4826,8 +4882,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -4897,8 +4953,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -4968,8 +5024,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5010,57 +5066,57 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5101,36 +5157,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -5229,10 +5285,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="29" t="s">
         <v>113</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -5304,8 +5360,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5375,8 +5431,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -5446,8 +5502,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -5517,8 +5573,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -5588,8 +5644,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5659,8 +5715,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -5730,8 +5786,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -5801,8 +5857,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -5872,8 +5928,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5914,57 +5970,57 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5991,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6006,36 +6062,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
@@ -6134,36 +6190,36 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="26" t="s">
-        <v>139</v>
+      <c r="N3" s="29" t="s">
+        <v>141</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
       <c r="R3">
         <v>10</v>
       </c>
       <c r="S3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V3" t="s">
         <v>118</v>
@@ -6209,32 +6265,32 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P4" s="12" t="str">
         <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="R4">
         <v>10</v>
       </c>
       <c r="S4">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T4" s="12" t="str">
         <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U4" s="12" t="str">
         <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V4" t="s">
         <v>119</v>
@@ -6280,15 +6336,15 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="P5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>131</v>
@@ -6297,15 +6353,15 @@
         <v>10</v>
       </c>
       <c r="S5">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V5" t="s">
         <v>120</v>
@@ -6351,15 +6407,15 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="P6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>117</v>
@@ -6368,15 +6424,15 @@
         <v>10</v>
       </c>
       <c r="S6">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V6" t="s">
         <v>120</v>
@@ -6422,32 +6478,32 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="R7">
         <v>10</v>
       </c>
       <c r="S7">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V7" t="s">
         <v>120</v>
@@ -6493,32 +6549,32 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="R8">
         <v>10</v>
       </c>
       <c r="S8">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V8" t="s">
         <v>123</v>
@@ -6553,7 +6609,7 @@
         <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J9" s="2">
         <v>10</v>
@@ -6564,15 +6620,15 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="P9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>117</v>
@@ -6581,15 +6637,15 @@
         <v>10</v>
       </c>
       <c r="S9">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>118</v>
@@ -6624,7 +6680,7 @@
         <v>3</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J10">
         <v>10</v>
@@ -6635,15 +6691,15 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="P10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>117</v>
@@ -6652,15 +6708,15 @@
         <v>10</v>
       </c>
       <c r="S10">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>120</v>
@@ -6706,15 +6762,15 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>117</v>
@@ -6723,15 +6779,15 @@
         <v>10</v>
       </c>
       <c r="S11">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>120</v>
@@ -6777,15 +6833,15 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>117</v>
@@ -6794,15 +6850,15 @@
         <v>10</v>
       </c>
       <c r="S12">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="T12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="U12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>118</v>
@@ -6819,65 +6875,60 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="Q1:AB1"/>
@@ -6885,6 +6936,11 @@
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6894,8 +6950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6909,36 +6965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="25"/>
-      <c r="Y1" s="25"/>
-      <c r="Z1" s="25"/>
-      <c r="AA1" s="25"/>
-      <c r="AB1" s="25"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
@@ -7037,19 +7093,19 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="N3" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="N3" s="26" t="s">
-        <v>141</v>
       </c>
       <c r="O3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", P3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q3" s="8" t="s">
         <v>134</v>
@@ -7062,11 +7118,11 @@
       </c>
       <c r="T3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", U3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v2.py ", E3, " ", C3, " --data_path '", $M$3, "' --model_path '", $N$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", Q3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", S3, " --fit_generator --n_figs ", R3)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G1.1lay.10ts.100hu.0110' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V3" t="s">
         <v>118</v>
@@ -7112,15 +7168,15 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P4" s="12" t="str">
         <f t="shared" ref="P4:P12" si="1">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q4" s="8" t="s">
         <v>135</v>
@@ -7133,11 +7189,11 @@
       </c>
       <c r="T4" s="12" t="str">
         <f t="shared" ref="T4:T12" si="2">CONCATENATE("screen -S ", B4, ".test ", U4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U4" s="12" t="str">
         <f t="shared" ref="U4:U12" si="3">CONCATENATE("python lstm.keras.v2.py ", E4, " ", C4, " --data_path '", $M$3, "' --model_path '", $N$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", Q4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", S4, " --fit_generator --n_figs ", R4)</f>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu.0090' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V4" t="s">
         <v>119</v>
@@ -7183,15 +7239,15 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
+      <c r="M5" s="29"/>
+      <c r="N5" s="29"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="P5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q5" s="8" t="s">
         <v>131</v>
@@ -7204,11 +7260,11 @@
       </c>
       <c r="T5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V5" t="s">
         <v>120</v>
@@ -7254,15 +7310,15 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="P6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q6" s="8" t="s">
         <v>117</v>
@@ -7275,11 +7331,11 @@
       </c>
       <c r="T6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V6" t="s">
         <v>120</v>
@@ -7325,15 +7381,15 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q7" s="8" t="s">
         <v>132</v>
@@ -7346,11 +7402,11 @@
       </c>
       <c r="T7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu.0020' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V7" t="s">
         <v>120</v>
@@ -7396,15 +7452,15 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q8" s="8" t="s">
         <v>133</v>
@@ -7417,11 +7473,11 @@
       </c>
       <c r="T8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu.0020' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V8" t="s">
         <v>123</v>
@@ -7467,15 +7523,15 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="P9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>117</v>
@@ -7488,11 +7544,11 @@
       </c>
       <c r="T9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V9" s="12" t="s">
         <v>118</v>
@@ -7538,15 +7594,15 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="P10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="Q10" s="8" t="s">
         <v>117</v>
@@ -7559,11 +7615,11 @@
       </c>
       <c r="T10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V10" s="12" t="s">
         <v>120</v>
@@ -7609,15 +7665,15 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="P11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>117</v>
@@ -7630,11 +7686,11 @@
       </c>
       <c r="T11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V11" s="12" t="s">
         <v>120</v>
@@ -7680,15 +7736,15 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="P12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="Q12" s="8" t="s">
         <v>117</v>
@@ -7701,11 +7757,11 @@
       </c>
       <c r="T12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="U12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 500 --fit_generator --n_figs 10</v>
       </c>
       <c r="V12" s="12" t="s">
         <v>118</v>
@@ -7722,65 +7778,60 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="C1:P1"/>
     <mergeCell ref="Q1:AB1"/>
@@ -7788,8 +7839,981 @@
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AF21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="25.5" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="19" max="19" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="C1" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+    </row>
+    <row r="2" spans="2:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="T2" t="s">
+        <v>67</v>
+      </c>
+      <c r="U2" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>256</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>10</v>
+      </c>
+      <c r="L3" s="2">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="P3" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="R3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S3" s="30"/>
+      <c r="T3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U3">
+        <v>10</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="X3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", Y3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v2.py ", F3, " ", C3, " ", D3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator --n_figs ", U3)</f>
+        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+    </row>
+    <row r="4" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>256</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="12" t="str">
+        <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="R4" s="12" t="str">
+        <f t="shared" ref="R4:R12" si="1">CONCATENATE("python lstm.keras.v2.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S4" s="30"/>
+      <c r="T4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U4">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>100</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="12" t="str">
+        <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y4" s="12" t="str">
+        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v2.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
+        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+    </row>
+    <row r="5" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>256</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>10</v>
+      </c>
+      <c r="L5" s="2">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="29"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S5" s="30"/>
+      <c r="T5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U5">
+        <v>10</v>
+      </c>
+      <c r="V5">
+        <v>100</v>
+      </c>
+      <c r="W5" s="29"/>
+      <c r="X5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+    </row>
+    <row r="6" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>256</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S6" s="30"/>
+      <c r="T6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U6">
+        <v>10</v>
+      </c>
+      <c r="V6">
+        <v>100</v>
+      </c>
+      <c r="W6" s="29"/>
+      <c r="X6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+    </row>
+    <row r="7" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>256</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10</v>
+      </c>
+      <c r="L7" s="2">
+        <v>64</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="R7" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="U7">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>100</v>
+      </c>
+      <c r="W7" s="29"/>
+      <c r="X7" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+    </row>
+    <row r="8" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>256</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>64</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="R8" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S8" s="30"/>
+      <c r="T8" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="U8">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>100</v>
+      </c>
+      <c r="W8" s="29"/>
+      <c r="X8" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+    </row>
+    <row r="9" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>10</v>
+      </c>
+      <c r="L9" s="2">
+        <v>64</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="R9" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S9" s="30"/>
+      <c r="T9" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+      <c r="V9">
+        <v>100</v>
+      </c>
+      <c r="W9" s="29"/>
+      <c r="X9" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+    </row>
+    <row r="10" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>256</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>300</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="R10" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S10" s="30"/>
+      <c r="T10" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>100</v>
+      </c>
+      <c r="W10" s="29"/>
+      <c r="X10" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+    </row>
+    <row r="11" spans="2:32" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>300</v>
+      </c>
+      <c r="G11">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10</v>
+      </c>
+      <c r="K11" s="2">
+        <v>10</v>
+      </c>
+      <c r="L11" s="2">
+        <v>64</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="29"/>
+      <c r="Q11" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="R11" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S11" s="30"/>
+      <c r="T11" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U11">
+        <v>10</v>
+      </c>
+      <c r="V11">
+        <v>100</v>
+      </c>
+      <c r="W11" s="29"/>
+      <c r="X11" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+    </row>
+    <row r="12" spans="2:32" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>256</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>600</v>
+      </c>
+      <c r="G12">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2">
+        <v>10</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="R12" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v2.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S12" s="30"/>
+      <c r="T12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U12">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>100</v>
+      </c>
+      <c r="W12" s="29"/>
+      <c r="X12" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Y12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v2.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+      </c>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+    </row>
+    <row r="13" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="14"/>
+    </row>
+    <row r="15" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="14"/>
+    </row>
+    <row r="16" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="14"/>
+    </row>
+    <row r="17" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="14"/>
+    </row>
+    <row r="18" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="14"/>
+    </row>
+    <row r="19" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="14"/>
+    </row>
+    <row r="20" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="14"/>
+    </row>
+    <row r="21" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="P3:P12"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="W3:W12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -800,6 +800,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -841,9 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,50 +1151,50 @@
   <sheetData>
     <row r="2" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="27" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
     </row>
     <row r="4" spans="2:34" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="22" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="22" t="s">
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="22" t="s">
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
     </row>
     <row r="5" spans="2:34" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
@@ -1478,23 +1478,23 @@
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
-      <c r="R14" s="25"/>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
-      <c r="AA14" s="25"/>
-      <c r="AB14" s="25"/>
-      <c r="AC14" s="25"/>
-      <c r="AD14" s="25"/>
-      <c r="AE14" s="25"/>
-      <c r="AF14" s="25"/>
-      <c r="AG14" s="25"/>
-      <c r="AH14" s="25"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
     </row>
     <row r="33" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="6"/>
@@ -1640,15 +1640,15 @@
       <c r="V43" s="4"/>
     </row>
     <row r="44" spans="1:22" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="27"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="27"/>
+      <c r="V44" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1691,42 +1691,42 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -1784,7 +1784,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1817,24 +1817,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="26" t="str">
+      <c r="N3" s="27" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S LorenzX-CR-G1 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 2 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
       <c r="W3" s="8" t="s">
         <v>106</v>
       </c>
@@ -1844,24 +1844,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="26" t="str">
+      <c r="Z3" s="27" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S LorenzX-CR-G1.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G1.1lay.10ts.100hu.0004' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1892,20 +1892,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="26" t="str">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G2 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -1915,24 +1915,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="26" t="str">
+      <c r="Z4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G2.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
       <c r="AI4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1963,20 +1963,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="26" t="str">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G3 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -1986,24 +1986,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="26" t="str">
+      <c r="Z5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G3.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
       <c r="AI5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -2034,20 +2034,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26" t="str">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G4 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2057,24 +2057,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="26" t="str">
+      <c r="Z6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G4.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
       <c r="AI6" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -2105,20 +2105,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="26" t="str">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G5 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="8" t="s">
         <v>99</v>
       </c>
@@ -2128,24 +2128,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="26" t="str">
+      <c r="Z7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G5.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G5.5lay.10ts.100hu.0050' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
       <c r="AI7" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>12</v>
       </c>
@@ -2176,20 +2176,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="26" t="str">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G6 python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="8" t="s">
         <v>100</v>
       </c>
@@ -2199,24 +2199,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G6.test python lstm.keras.py 10 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G6.5lay.10ts.300hu.0070' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
       <c r="AI8" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2247,20 +2247,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="26" t="str">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G7 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
       <c r="W9" s="8" t="s">
         <v>101</v>
       </c>
@@ -2270,24 +2270,24 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="26" t="str">
+      <c r="Z9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G7.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
       <c r="AI9" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -2318,20 +2318,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="26" t="str">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S LorenzX-CR-G8 python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="8" t="s">
         <v>101</v>
       </c>
@@ -2341,194 +2341,180 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="26" t="str">
+      <c r="Z10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S LorenzX-CR-G8.test python lstm.keras.py 100 1 --data_path '../data/Lorenz_1_100000_x.npy' --model_path '../model/LorenzX/LorenzX-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
       <c r="AI10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2545,6 +2531,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2566,42 +2566,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="1:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -2659,7 +2659,7 @@
       </c>
     </row>
     <row r="3" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2692,24 +2692,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="26" t="str">
+      <c r="N3" s="27" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S Lorenz-CR-G1 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
       <c r="W3" s="8" t="s">
         <v>68</v>
       </c>
@@ -2719,24 +2719,24 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="26" t="str">
+      <c r="Z3" s="27" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S Lorenz-CR-G1.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
       <c r="AI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>80</v>
       </c>
@@ -2767,20 +2767,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="26" t="str">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G2 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="8" t="s">
         <v>70</v>
       </c>
@@ -2790,24 +2790,24 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="26" t="str">
+      <c r="Z4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G2.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="1" t="s">
         <v>81</v>
       </c>
@@ -2838,20 +2838,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="26" t="str">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G3 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="8" t="s">
         <v>69</v>
       </c>
@@ -2861,24 +2861,24 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="26" t="str">
+      <c r="Z5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G3.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G3.1lay.100ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="1" t="s">
         <v>82</v>
       </c>
@@ -2909,20 +2909,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26" t="str">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G4 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="8" t="s">
         <v>69</v>
       </c>
@@ -2932,24 +2932,24 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="26" t="str">
+      <c r="Z6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G4.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G4.1lay.100ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
       <c r="AI6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="1" t="s">
         <v>83</v>
       </c>
@@ -2980,20 +2980,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="26" t="str">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G5 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="8" t="s">
         <v>102</v>
       </c>
@@ -3003,24 +3003,24 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="26" t="str">
+      <c r="Z7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G5.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G5.5lay.10ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
       <c r="AI7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
@@ -3051,20 +3051,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="26" t="str">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G6 python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="8" t="s">
         <v>69</v>
       </c>
@@ -3074,24 +3074,24 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G6.test python lstm.keras.py 10 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G6.5lay.10ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
       <c r="AI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="1" t="s">
         <v>85</v>
       </c>
@@ -3122,20 +3122,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="26" t="str">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G7 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
       <c r="W9" s="8" t="s">
         <v>69</v>
       </c>
@@ -3145,21 +3145,21 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="26" t="str">
+      <c r="Z9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G7.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G7.5lay.100ts.100hu.0100' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
@@ -3190,20 +3190,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="26" t="str">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S Lorenz-CR-G8 python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="8" t="s">
         <v>69</v>
       </c>
@@ -3213,191 +3213,177 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="26" t="str">
+      <c r="Z10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S Lorenz-CR-G8.test python lstm.keras.py 100 3 --data_path '../data/Lorenz_1_100000.npy' --model_path '../model/Lorenz/Lorenz-CR-G8.5lay.100ts.300hu.0100' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="A11" s="29"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
     </row>
     <row r="12" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="1:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C16">
         <v>3</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="1:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3414,6 +3400,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3435,42 +3435,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
     </row>
     <row r="2" spans="2:35" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
@@ -3558,24 +3558,24 @@
       <c r="K3" s="2">
         <v>64</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="N3" s="26" t="str">
+      <c r="N3" s="27" t="str">
         <f t="shared" ref="N3:N10" si="0">CONCATENATE("screen -S ", B3, " python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batch_size ", K3," --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale")</f>
         <v>screen -S FinData-CR-G1 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
       <c r="W3" s="8" t="s">
         <v>104</v>
       </c>
@@ -3585,18 +3585,18 @@
       <c r="Y3">
         <v>500</v>
       </c>
-      <c r="Z3" s="26" t="str">
+      <c r="Z3" s="27" t="str">
         <f t="shared" ref="Z3:Z10" si="1">CONCATENATE("screen -S ", B3, ".test python lstm.keras.py ", E3, " ", C3, " --data_path '", $L$3, "' --model_path '", $M$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", W3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --data_scale --test --test_length ", Y3, " --n_figs ", X3)</f>
         <v>screen -S FinData-CR-G1.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G1.1lay.10ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
       <c r="AI3" t="s">
         <v>107</v>
       </c>
@@ -3632,20 +3632,20 @@
       <c r="K4">
         <v>64</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="26" t="str">
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G2 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="27"/>
       <c r="W4" s="8" t="s">
         <v>105</v>
       </c>
@@ -3655,18 +3655,18 @@
       <c r="Y4">
         <v>500</v>
       </c>
-      <c r="Z4" s="26" t="str">
+      <c r="Z4" s="27" t="str">
         <f>CONCATENATE("screen -S ", B4, ".test python lstm.keras.py ", E4, " ", C4, " --data_path '", $L$3, "' --model_path '", $M$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", W4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --data_scale --test --test_length ", Y4, " --n_figs ", X4)</f>
         <v>screen -S FinData-CR-G2.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G2.1lay.10ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
+      <c r="AA4" s="27"/>
+      <c r="AB4" s="27"/>
+      <c r="AC4" s="27"/>
+      <c r="AD4" s="27"/>
+      <c r="AE4" s="27"/>
+      <c r="AF4" s="27"/>
+      <c r="AG4" s="27"/>
+      <c r="AH4" s="27"/>
       <c r="AI4" t="s">
         <v>76</v>
       </c>
@@ -3702,20 +3702,20 @@
       <c r="K5" s="2">
         <v>64</v>
       </c>
-      <c r="L5" s="29"/>
-      <c r="M5" s="29"/>
-      <c r="N5" s="26" t="str">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
       <c r="W5" s="8" t="s">
         <v>103</v>
       </c>
@@ -3725,18 +3725,18 @@
       <c r="Y5">
         <v>500</v>
       </c>
-      <c r="Z5" s="26" t="str">
+      <c r="Z5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G3.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G3.1lay.100ts.100hu.0200' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="27"/>
+      <c r="AF5" s="27"/>
+      <c r="AG5" s="27"/>
+      <c r="AH5" s="27"/>
       <c r="AI5" t="s">
         <v>76</v>
       </c>
@@ -3772,20 +3772,20 @@
       <c r="K6">
         <v>64</v>
       </c>
-      <c r="L6" s="29"/>
-      <c r="M6" s="29"/>
-      <c r="N6" s="26" t="str">
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
       <c r="W6" s="8" t="s">
         <v>103</v>
       </c>
@@ -3795,18 +3795,18 @@
       <c r="Y6">
         <v>500</v>
       </c>
-      <c r="Z6" s="26" t="str">
+      <c r="Z6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G4.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G4.1lay.100ts.300hu.0200' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA6" s="26"/>
-      <c r="AB6" s="26"/>
-      <c r="AC6" s="26"/>
-      <c r="AD6" s="26"/>
-      <c r="AE6" s="26"/>
-      <c r="AF6" s="26"/>
-      <c r="AG6" s="26"/>
-      <c r="AH6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="27"/>
+      <c r="AG6" s="27"/>
+      <c r="AH6" s="27"/>
       <c r="AI6" t="s">
         <v>108</v>
       </c>
@@ -3842,20 +3842,20 @@
       <c r="K7" s="2">
         <v>64</v>
       </c>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="26" t="str">
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale</v>
       </c>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
       <c r="W7" s="8" t="s">
         <v>103</v>
       </c>
@@ -3865,18 +3865,18 @@
       <c r="Y7">
         <v>500</v>
       </c>
-      <c r="Z7" s="26" t="str">
+      <c r="Z7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G5.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G5.5lay.10ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="27"/>
+      <c r="AG7" s="27"/>
+      <c r="AH7" s="27"/>
       <c r="AI7" t="s">
         <v>109</v>
       </c>
@@ -3912,20 +3912,20 @@
       <c r="K8">
         <v>64</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="26" t="str">
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale</v>
       </c>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
       <c r="W8" s="8" t="s">
         <v>103</v>
       </c>
@@ -3935,18 +3935,18 @@
       <c r="Y8">
         <v>500</v>
       </c>
-      <c r="Z8" s="26" t="str">
+      <c r="Z8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G6.test python lstm.keras.py 10 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G6.5lay.10ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
+      <c r="AA8" s="27"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="27"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="27"/>
       <c r="AI8" t="s">
         <v>110</v>
       </c>
@@ -3982,20 +3982,20 @@
       <c r="K9" s="2">
         <v>64</v>
       </c>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="26" t="str">
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale</v>
       </c>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
       <c r="W9" s="8" t="s">
         <v>103</v>
       </c>
@@ -4005,18 +4005,18 @@
       <c r="Y9">
         <v>500</v>
       </c>
-      <c r="Z9" s="26" t="str">
+      <c r="Z9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G7.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G7.5lay.100ts.100hu.0200' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA9" s="26"/>
-      <c r="AB9" s="26"/>
-      <c r="AC9" s="26"/>
-      <c r="AD9" s="26"/>
-      <c r="AE9" s="26"/>
-      <c r="AF9" s="26"/>
-      <c r="AG9" s="26"/>
-      <c r="AH9" s="26"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="27"/>
+      <c r="AG9" s="27"/>
+      <c r="AH9" s="27"/>
     </row>
     <row r="10" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
@@ -4049,20 +4049,20 @@
       <c r="K10">
         <v>64</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="26" t="str">
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale</v>
       </c>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
       <c r="W10" s="8" t="s">
         <v>103</v>
       </c>
@@ -4072,146 +4072,134 @@
       <c r="Y10">
         <v>500</v>
       </c>
-      <c r="Z10" s="26" t="str">
+      <c r="Z10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>screen -S FinData-CR-G8.test python lstm.keras.py 100 80 --data_path '../data/prices.5min.top100volume/top80volumestocks.csv' --model_path '../model/FinancialTop80volume/FinData-CR-G8.5lay.100ts.300hu.0200' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --data_scale --test --test_length 500 --n_figs 10</v>
       </c>
-      <c r="AA10" s="26"/>
-      <c r="AB10" s="26"/>
-      <c r="AC10" s="26"/>
-      <c r="AD10" s="26"/>
-      <c r="AE10" s="26"/>
-      <c r="AF10" s="26"/>
-      <c r="AG10" s="26"/>
-      <c r="AH10" s="26"/>
+      <c r="AA10" s="27"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="27"/>
+      <c r="AG10" s="27"/>
+      <c r="AH10" s="27"/>
     </row>
     <row r="11" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
     </row>
     <row r="13" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
     </row>
     <row r="14" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
     </row>
     <row r="15" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
     </row>
     <row r="16" spans="2:35" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
     </row>
     <row r="17" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="27"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="27"/>
     </row>
     <row r="18" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="27"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="27"/>
     </row>
     <row r="19" spans="2:22" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="27"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4228,6 +4216,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4253,36 +4253,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="10"/>
@@ -4381,10 +4381,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="30" t="s">
         <v>137</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -4456,8 +4456,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -4527,8 +4527,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -4598,8 +4598,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -4669,8 +4669,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -4740,8 +4740,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -4811,8 +4811,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -4882,8 +4882,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -4953,8 +4953,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -5024,8 +5024,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.normalized.npy' --model_path '../model/FinancialTop80volumeX6.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5066,57 +5066,57 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5157,36 +5157,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="9"/>
@@ -5285,10 +5285,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="30" t="s">
         <v>113</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -5360,8 +5360,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5431,8 +5431,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -5502,8 +5502,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -5573,8 +5573,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -5644,8 +5644,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5715,8 +5715,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -5786,8 +5786,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -5857,8 +5857,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -5928,8 +5928,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.normalized.npy' --model_path '../model/FinancialTop80volumeX6/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -5970,60 +5970,65 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6031,11 +6036,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6062,36 +6062,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
@@ -6190,10 +6190,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="30" t="s">
         <v>141</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -6265,8 +6265,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -6336,8 +6336,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -6407,8 +6407,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -6478,8 +6478,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -6549,8 +6549,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -6620,8 +6620,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -6691,8 +6691,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -6762,8 +6762,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -6833,8 +6833,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.1h.top100volume/top80volumestocks.1h.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.1h/FinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -6875,57 +6875,57 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -6965,36 +6965,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
     </row>
     <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="11"/>
@@ -7093,10 +7093,10 @@
       <c r="L3" s="2">
         <v>1000</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="30" t="s">
         <v>139</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="30" t="s">
         <v>140</v>
       </c>
       <c r="O3" s="12" t="str">
@@ -7168,8 +7168,8 @@
       <c r="L4" s="2">
         <v>1000</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
       <c r="O4" s="12" t="str">
         <f t="shared" ref="O4:O12" si="0">CONCATENATE("screen -S ", B4, " ", P4)</f>
         <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -7239,8 +7239,8 @@
       <c r="L5" s="2">
         <v>1000</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -7310,8 +7310,8 @@
       <c r="L6" s="2">
         <v>1000</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="O6" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -7381,8 +7381,8 @@
       <c r="L7" s="2">
         <v>1000</v>
       </c>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -7452,8 +7452,8 @@
       <c r="L8" s="2">
         <v>1000</v>
       </c>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
       <c r="O8" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -7523,8 +7523,8 @@
       <c r="L9" s="2">
         <v>1000</v>
       </c>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
       <c r="O9" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G7.5lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
@@ -7594,8 +7594,8 @@
       <c r="L10" s="2">
         <v>1000</v>
       </c>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
       <c r="O10" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G8.5lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
@@ -7665,8 +7665,8 @@
       <c r="L11" s="2">
         <v>1000</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
       <c r="O11" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
@@ -7736,8 +7736,8 @@
       <c r="L12" s="2">
         <v>1000</v>
       </c>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
       <c r="O12" s="12" t="str">
         <f t="shared" si="0"/>
         <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 6 --data_path '../data/prices.5min.top100volume/top80volumestocks.5min.logreturn.normalized.npy' --model_path '../model/Financial.Top80X6.lrets.norm.5mFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
@@ -7778,57 +7778,57 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
     </row>
     <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
     </row>
     <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
     </row>
     <row r="17" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="27"/>
     </row>
     <row r="19" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="27"/>
     </row>
     <row r="20" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="27"/>
     </row>
     <row r="21" spans="2:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -7855,7 +7855,7 @@
   <dimension ref="B1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7870,40 +7870,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
       <c r="S1" s="15"/>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
     </row>
     <row r="2" spans="2:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -8017,24 +8017,24 @@
       <c r="M3" s="2">
         <v>1000</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="30" t="s">
         <v>147</v>
       </c>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v2.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S3" s="30"/>
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S3" s="16"/>
       <c r="T3" s="8" t="s">
         <v>69</v>
       </c>
@@ -8044,16 +8044,16 @@
       <c r="V3">
         <v>100</v>
       </c>
-      <c r="W3" s="29" t="s">
+      <c r="W3" s="30" t="s">
         <v>149</v>
       </c>
       <c r="X3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Y3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v2.py ", F3, " ", C3, " ", D3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator --n_figs ", U3)</f>
-        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator --n_figs ", U3)</f>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
@@ -8099,18 +8099,18 @@
       <c r="M4" s="2">
         <v>1000</v>
       </c>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R4" s="12" t="str">
-        <f t="shared" ref="R4:R12" si="1">CONCATENATE("python lstm.keras.v2.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S4" s="30"/>
+        <f t="shared" ref="R4:R12" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
         <v>69</v>
       </c>
@@ -8120,14 +8120,14 @@
       <c r="V4">
         <v>100</v>
       </c>
-      <c r="W4" s="29"/>
+      <c r="W4" s="30"/>
       <c r="X4" s="12" t="str">
         <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y4" s="12" t="str">
-        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v2.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
-        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -8173,18 +8173,18 @@
       <c r="M5" s="2">
         <v>1000</v>
       </c>
-      <c r="N5" s="29"/>
-      <c r="O5" s="29"/>
-      <c r="P5" s="29"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="S5" s="30"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S5" s="16"/>
       <c r="T5" s="8" t="s">
         <v>101</v>
       </c>
@@ -8194,14 +8194,14 @@
       <c r="V5">
         <v>100</v>
       </c>
-      <c r="W5" s="29"/>
+      <c r="W5" s="30"/>
       <c r="X5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -8247,18 +8247,18 @@
       <c r="M6" s="2">
         <v>1000</v>
       </c>
-      <c r="N6" s="29"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="29"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
       <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="S6" s="30"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S6" s="16"/>
       <c r="T6" s="8" t="s">
         <v>117</v>
       </c>
@@ -8268,14 +8268,14 @@
       <c r="V6">
         <v>100</v>
       </c>
-      <c r="W6" s="29"/>
+      <c r="W6" s="30"/>
       <c r="X6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -8321,18 +8321,18 @@
       <c r="M7" s="2">
         <v>1000</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S7" s="30"/>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S7" s="16"/>
       <c r="T7" s="8" t="s">
         <v>142</v>
       </c>
@@ -8342,14 +8342,14 @@
       <c r="V7">
         <v>100</v>
       </c>
-      <c r="W7" s="29"/>
+      <c r="W7" s="30"/>
       <c r="X7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -8395,18 +8395,18 @@
       <c r="M8" s="2">
         <v>1000</v>
       </c>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S8" s="30"/>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
         <v>142</v>
       </c>
@@ -8416,14 +8416,14 @@
       <c r="V8">
         <v>100</v>
       </c>
-      <c r="W8" s="29"/>
+      <c r="W8" s="30"/>
       <c r="X8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
@@ -8469,18 +8469,18 @@
       <c r="M9" s="2">
         <v>1000</v>
       </c>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="S9" s="30"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S9" s="16"/>
       <c r="T9" s="8" t="s">
         <v>117</v>
       </c>
@@ -8490,14 +8490,14 @@
       <c r="V9">
         <v>100</v>
       </c>
-      <c r="W9" s="29"/>
+      <c r="W9" s="30"/>
       <c r="X9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -8544,18 +8544,18 @@
       <c r="M10" s="2">
         <v>1000</v>
       </c>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
       <c r="Q10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="S10" s="30"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S10" s="16"/>
       <c r="T10" s="8" t="s">
         <v>117</v>
       </c>
@@ -8565,14 +8565,14 @@
       <c r="V10">
         <v>100</v>
       </c>
-      <c r="W10" s="29"/>
+      <c r="W10" s="30"/>
       <c r="X10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -8619,18 +8619,18 @@
       <c r="M11" s="2">
         <v>1000</v>
       </c>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v2.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S11" s="30"/>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S11" s="16"/>
       <c r="T11" s="8" t="s">
         <v>117</v>
       </c>
@@ -8640,14 +8640,14 @@
       <c r="V11">
         <v>100</v>
       </c>
-      <c r="W11" s="29"/>
+      <c r="W11" s="30"/>
       <c r="X11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v2.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -8694,18 +8694,18 @@
       <c r="M12" s="2">
         <v>1000</v>
       </c>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v2.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v2.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S12" s="30"/>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S12" s="16"/>
       <c r="T12" s="8" t="s">
         <v>117</v>
       </c>
@@ -8715,14 +8715,14 @@
       <c r="V12">
         <v>100</v>
       </c>
-      <c r="W12" s="29"/>
+      <c r="W12" s="30"/>
       <c r="X12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v2.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v2.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>
@@ -8737,73 +8737,68 @@
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="14"/>
     </row>
     <row r="17" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="14"/>
     </row>
     <row r="18" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="14"/>
     </row>
     <row r="21" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="C1:R1"/>
     <mergeCell ref="T1:AF1"/>
@@ -8813,6 +8808,11 @@
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="O3:O12"/>
     <mergeCell ref="W3:W12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="Q20:R20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -586,6 +586,9 @@
   </si>
   <si>
     <t>montecarlo</t>
+  </si>
+  <si>
+    <t>DiscreteLstm1Layer</t>
   </si>
 </sst>
 </file>
@@ -2515,6 +2518,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2531,20 +2548,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3384,6 +3387,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3400,20 +3417,6 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4200,6 +4203,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4216,18 +4231,6 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6024,11 +6027,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6036,6 +6034,11 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7854,7 +7857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
@@ -8000,7 +8003,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -8028,11 +8031,11 @@
       </c>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="8" t="s">
@@ -8049,11 +8052,11 @@
       </c>
       <c r="X3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Y3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator --n_figs ", U3)</f>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
@@ -8082,7 +8085,7 @@
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -8104,11 +8107,11 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
@@ -8123,11 +8126,11 @@
       <c r="W4" s="30"/>
       <c r="X4" s="12" t="str">
         <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -8156,7 +8159,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -8178,11 +8181,11 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="8" t="s">
@@ -8197,11 +8200,11 @@
       <c r="W5" s="30"/>
       <c r="X5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver SolverStructure2 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -8230,7 +8233,7 @@
         <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -8252,11 +8255,11 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="8" t="s">
@@ -8271,11 +8274,11 @@
       <c r="W6" s="30"/>
       <c r="X6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver SolverStructure2 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -8304,7 +8307,7 @@
         <v>100</v>
       </c>
       <c r="H7" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8326,11 +8329,11 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="8" t="s">
@@ -8345,11 +8348,11 @@
       <c r="W7" s="30"/>
       <c r="X7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -8378,7 +8381,7 @@
         <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -8400,11 +8403,11 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
@@ -8419,11 +8422,11 @@
       <c r="W8" s="30"/>
       <c r="X8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
@@ -8452,7 +8455,7 @@
         <v>100</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8474,11 +8477,11 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="8" t="s">
@@ -8493,11 +8496,11 @@
       <c r="W9" s="30"/>
       <c r="X9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver SolverStructure3 --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -8527,7 +8530,7 @@
         <v>300</v>
       </c>
       <c r="H10" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -8549,11 +8552,11 @@
       <c r="P10" s="30"/>
       <c r="Q10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="8" t="s">
@@ -8568,11 +8571,11 @@
       <c r="W10" s="30"/>
       <c r="X10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver SolverStructure3 --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -8602,7 +8605,7 @@
         <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -8624,11 +8627,11 @@
       <c r="P11" s="30"/>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="8" t="s">
@@ -8643,11 +8646,11 @@
       <c r="W11" s="30"/>
       <c r="X11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver SolverStructure1 --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -8677,7 +8680,7 @@
         <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -8699,11 +8702,11 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R12" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S12" s="16"/>
       <c r="T12" s="8" t="s">
@@ -8718,11 +8721,11 @@
       <c r="W12" s="30"/>
       <c r="X12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver SolverStructure1 --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="154">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>DiscreteLstm1Layer</t>
+  </si>
+  <si>
+    <t>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</t>
   </si>
 </sst>
 </file>
@@ -2518,20 +2521,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2548,6 +2537,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3387,20 +3390,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3417,6 +3406,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4203,18 +4206,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4231,6 +4222,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6027,6 +6030,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6034,11 +6042,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7857,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8059,7 +8062,9 @@
         <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA3" s="12"/>
-      <c r="AB3" s="12"/>
+      <c r="AB3" s="12" t="s">
+        <v>153</v>
+      </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -2521,6 +2521,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2537,20 +2551,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,6 +3390,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3406,20 +3420,6 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,6 +4206,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4222,18 +4234,6 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6030,11 +6030,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6042,6 +6037,11 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7861,7 +7861,7 @@
   <dimension ref="B1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8015,13 +8015,13 @@
         <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
       </c>
       <c r="M3" s="2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="N3" s="30" t="s">
         <v>145</v>
@@ -8034,11 +8034,11 @@
       </c>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 100 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", V3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 100 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="8" t="s">
@@ -8112,11 +8112,11 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R4" s="12" t="str">
-        <f t="shared" ref="R4:R12" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f t="shared" ref="R4:R11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", V4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
@@ -8186,11 +8186,11 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="8" t="s">
@@ -8260,11 +8260,11 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="8" t="s">
@@ -8334,11 +8334,11 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="8" t="s">
@@ -8408,11 +8408,11 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
@@ -8482,11 +8482,11 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="8" t="s">
@@ -8557,11 +8557,11 @@
       <c r="P10" s="30"/>
       <c r="Q10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="8" t="s">
@@ -8632,11 +8632,11 @@
       <c r="P11" s="30"/>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="8" t="s">
@@ -8707,11 +8707,11 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R12" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f>CONCATENATE("python lstm.keras.v3.py ", F12, " ", C12, " ", D12, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B12, ".", E12, "lay", ".", F12, "ts.", G12, "hu' --stages ", J12, " --epochs ", K12, " --batches_per_epoch ", M12, " --batch_size ", L12, " --test_length ", V12, " --Solver ", H12, " --hidden_units ", G12, " --CUDA_VISIBLE_DEVICES ", I12, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S12" s="16"/>
       <c r="T12" s="8" t="s">

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -2521,20 +2521,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2551,6 +2537,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,20 +3390,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3420,6 +3406,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,18 +4206,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4234,6 +4222,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6030,6 +6030,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6037,11 +6042,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7860,8 +7860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8012,16 +8012,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
       </c>
       <c r="M3" s="2">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
         <v>145</v>
@@ -8034,11 +8034,11 @@
       </c>
       <c r="Q3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 100 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", V3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 100 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="16"/>
       <c r="T3" s="8" t="s">
@@ -8078,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8096,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -8112,11 +8112,11 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", V4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
@@ -8131,11 +8131,11 @@
       <c r="W4" s="30"/>
       <c r="X4" s="12" t="str">
         <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -8170,7 +8170,7 @@
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K5" s="2">
         <v>10</v>
@@ -8186,11 +8186,11 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="16"/>
       <c r="T5" s="8" t="s">
@@ -8226,7 +8226,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -8244,7 +8244,7 @@
         <v>3</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K6">
         <v>10</v>
@@ -8260,11 +8260,11 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="16"/>
       <c r="T6" s="8" t="s">
@@ -8279,11 +8279,11 @@
       <c r="W6" s="30"/>
       <c r="X6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K7" s="2">
         <v>10</v>
@@ -8334,11 +8334,11 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="8" t="s">
@@ -8392,7 +8392,7 @@
         <v>1</v>
       </c>
       <c r="J8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K8">
         <v>10</v>
@@ -8408,11 +8408,11 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
@@ -8466,7 +8466,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K9" s="2">
         <v>10</v>
@@ -8482,11 +8482,11 @@
       <c r="P9" s="30"/>
       <c r="Q9" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="R9" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S9" s="16"/>
       <c r="T9" s="8" t="s">
@@ -8541,7 +8541,7 @@
         <v>3</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <v>10</v>
@@ -8557,11 +8557,11 @@
       <c r="P10" s="30"/>
       <c r="Q10" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="R10" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 5 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S10" s="16"/>
       <c r="T10" s="8" t="s">
@@ -8616,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K11" s="2">
         <v>10</v>
@@ -8632,11 +8632,11 @@
       <c r="P11" s="30"/>
       <c r="Q11" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R11" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S11" s="16"/>
       <c r="T11" s="8" t="s">
@@ -8690,8 +8690,8 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12" s="2">
-        <v>10</v>
+      <c r="J12">
+        <v>20</v>
       </c>
       <c r="K12">
         <v>10</v>
@@ -8707,11 +8707,11 @@
       <c r="P12" s="30"/>
       <c r="Q12" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R12" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F12, " ", C12, " ", D12, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B12, ".", E12, "lay", ".", F12, "ts.", G12, "hu' --stages ", J12, " --epochs ", K12, " --batches_per_epoch ", M12, " --batch_size ", L12, " --test_length ", V12, " --Solver ", H12, " --hidden_units ", G12, " --CUDA_VISIBLE_DEVICES ", I12, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S12" s="16"/>
       <c r="T12" s="8" t="s">

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="155">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -592,6 +592,9 @@
   </si>
   <si>
     <t>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</t>
+  </si>
+  <si>
+    <t>DiscreteLstm3Layer</t>
   </si>
 </sst>
 </file>
@@ -2521,6 +2524,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2537,20 +2554,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3390,6 +3393,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3406,20 +3423,6 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4206,6 +4209,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4222,18 +4237,6 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6030,11 +6033,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6042,6 +6040,11 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7860,8 +7863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8300,19 +8303,19 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8334,11 +8337,11 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 20 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="R7" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python lstm.keras.v3.py 20 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S7" s="16"/>
       <c r="T7" s="8" t="s">
@@ -8353,11 +8356,11 @@
       <c r="W7" s="30"/>
       <c r="X7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.5lay.10ts.100hu.0030' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 20 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -8371,22 +8374,22 @@
         <v>30</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="D8">
-        <v>256</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>300</v>
+        <v>128</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -8408,11 +8411,11 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
@@ -8427,11 +8430,11 @@
       <c r="W8" s="30"/>
       <c r="X8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.5lay.10ts.300hu.0030' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -7864,7 +7864,7 @@
   <dimension ref="B1:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8099,7 +8099,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>10</v>
@@ -8115,11 +8115,11 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="12" t="str">
         <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 100 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", V4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 100 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
@@ -8380,7 +8380,7 @@
         <v>64</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>20</v>
@@ -8411,11 +8411,11 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="R8" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S8" s="16"/>
       <c r="T8" s="8" t="s">
@@ -8430,11 +8430,11 @@
       <c r="W8" s="30"/>
       <c r="X8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="Y8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.1lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="156">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -591,10 +591,13 @@
     <t>DiscreteLstm1Layer</t>
   </si>
   <si>
-    <t>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</t>
-  </si>
-  <si>
     <t>DiscreteLstm3Layer</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</t>
   </si>
 </sst>
 </file>
@@ -2524,20 +2527,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2554,6 +2543,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3393,20 +3396,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3423,6 +3412,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4209,18 +4212,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4237,6 +4228,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6033,6 +6036,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6040,11 +6048,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7863,8 +7866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7875,7 +7878,8 @@
     <col min="18" max="18" width="10" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.1640625" customWidth="1"/>
+    <col min="25" max="25" width="17.1640625" customWidth="1"/>
+    <col min="28" max="28" width="45" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:32" x14ac:dyDescent="0.2">
@@ -8058,15 +8062,15 @@
       </c>
       <c r="X3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Y3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator --n_figs ", U3)</f>
-        <v>python lstm.keras.v3.py 10 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
@@ -8123,7 +8127,7 @@
       </c>
       <c r="S4" s="16"/>
       <c r="T4" s="8" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="U4">
         <v>10</v>
@@ -8134,11 +8138,11 @@
       <c r="W4" s="30"/>
       <c r="X4" s="12" t="str">
         <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y4" s="12" t="str">
-        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator --n_figs ", U4)</f>
-        <v>python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.0100' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
@@ -8208,11 +8212,11 @@
       <c r="W5" s="30"/>
       <c r="X5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
@@ -8282,11 +8286,11 @@
       <c r="W6" s="30"/>
       <c r="X6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="12"/>
@@ -8315,7 +8319,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -8356,11 +8360,11 @@
       <c r="W7" s="30"/>
       <c r="X7" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y7" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 20 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA7" s="12"/>
       <c r="AB7" s="12"/>
@@ -8389,7 +8393,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -8430,11 +8434,11 @@
       <c r="W8" s="30"/>
       <c r="X8" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 20 3 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AA8" s="12"/>
       <c r="AB8" s="12"/>
@@ -8504,11 +8508,11 @@
       <c r="W9" s="30"/>
       <c r="X9" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z9" s="12"/>
       <c r="AA9" s="12"/>
@@ -8579,11 +8583,11 @@
       <c r="W10" s="30"/>
       <c r="X10" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12"/>
@@ -8654,11 +8658,11 @@
       <c r="W11" s="30"/>
       <c r="X11" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 300 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z11" s="12"/>
       <c r="AA11" s="12"/>
@@ -8729,11 +8733,11 @@
       <c r="W12" s="30"/>
       <c r="X12" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Y12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 600 1 256 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</v>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z12" s="12"/>
       <c r="AA12" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="160">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -597,7 +597,19 @@
     <t>1000</t>
   </si>
   <si>
-    <t>python lstm.keras.v3.py 10 1 64 --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --n_figs 10</t>
+    <t>MCMC-WINDOWS</t>
+  </si>
+  <si>
+    <t>n_samples</t>
+  </si>
+  <si>
+    <t>montecarlo_pred_mode</t>
+  </si>
+  <si>
+    <t>modal</t>
+  </si>
+  <si>
+    <t>MCMC-LINUX</t>
   </si>
 </sst>
 </file>
@@ -2527,6 +2539,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2543,20 +2569,6 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3396,6 +3408,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3412,20 +3438,6 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4212,6 +4224,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4228,18 +4252,6 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6036,11 +6048,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6048,6 +6055,11 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7864,10 +7876,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AF21"/>
+  <dimension ref="B1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Y4" sqref="Y4"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7879,10 +7891,12 @@
     <col min="19" max="19" width="12.6640625" customWidth="1"/>
     <col min="24" max="24" width="12.6640625" customWidth="1"/>
     <col min="25" max="25" width="17.1640625" customWidth="1"/>
-    <col min="28" max="28" width="45" customWidth="1"/>
+    <col min="28" max="28" width="19.1640625" customWidth="1"/>
+    <col min="29" max="29" width="45" customWidth="1"/>
+    <col min="30" max="30" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
@@ -7917,8 +7931,9 @@
       <c r="AD1" s="29"/>
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
-    </row>
-    <row r="2" spans="2:32" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG1" s="29"/>
+    </row>
+    <row r="2" spans="2:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="13" t="s">
         <v>47</v>
@@ -7992,8 +8007,20 @@
       <c r="Z2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AA2" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:33" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8068,16 +8095,25 @@
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator")</f>
         <v>python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA3" s="12"/>
+      <c r="AA3" s="12">
+        <v>512</v>
+      </c>
       <c r="AB3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="AC3" s="12" t="str">
+        <f>CONCATENATE(Y3, " --montecarlo --n_samples ", AA3, " --montecarlo_pred_mode ", AB3)</f>
+        <v>python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", AC3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE3" s="12"/>
       <c r="AF3" s="12"/>
-    </row>
-    <row r="4" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG3" s="12"/>
+    </row>
+    <row r="4" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -8150,8 +8186,9 @@
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
-    </row>
-    <row r="5" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG4" s="12"/>
+    </row>
+    <row r="5" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -8224,8 +8261,9 @@
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
-    </row>
-    <row r="6" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG5" s="12"/>
+    </row>
+    <row r="6" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8298,8 +8336,9 @@
       <c r="AD6" s="12"/>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
-    </row>
-    <row r="7" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG6" s="12"/>
+    </row>
+    <row r="7" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>29</v>
       </c>
@@ -8372,8 +8411,9 @@
       <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
-    </row>
-    <row r="8" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG7" s="12"/>
+    </row>
+    <row r="8" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -8446,8 +8486,9 @@
       <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
-    </row>
-    <row r="9" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG8" s="12"/>
+    </row>
+    <row r="9" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
@@ -8521,8 +8562,9 @@
       <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
-    </row>
-    <row r="10" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG9" s="12"/>
+    </row>
+    <row r="10" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -8596,8 +8638,9 @@
       <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
-    </row>
-    <row r="11" spans="2:32" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG10" s="12"/>
+    </row>
+    <row r="11" spans="2:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>125</v>
       </c>
@@ -8671,8 +8714,9 @@
       <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
-    </row>
-    <row r="12" spans="2:32" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AG11" s="12"/>
+    </row>
+    <row r="12" spans="2:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>126</v>
       </c>
@@ -8746,9 +8790,10 @@
       <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
-    </row>
-    <row r="13" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AG12" s="12"/>
+    </row>
+    <row r="13" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -8756,7 +8801,7 @@
       <c r="R14" s="27"/>
       <c r="S14" s="14"/>
     </row>
-    <row r="15" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
@@ -8764,7 +8809,7 @@
       <c r="R15" s="27"/>
       <c r="S15" s="14"/>
     </row>
-    <row r="16" spans="2:32" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
@@ -8816,7 +8861,7 @@
   <mergeCells count="14">
     <mergeCell ref="Q21:R21"/>
     <mergeCell ref="C1:R1"/>
-    <mergeCell ref="T1:AF1"/>
+    <mergeCell ref="T1:AG1"/>
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="P3:P12"/>
     <mergeCell ref="Q14:R14"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="161">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -610,6 +610,9 @@
   </si>
   <si>
     <t>MCMC-LINUX</t>
+  </si>
+  <si>
+    <t>mode</t>
   </si>
 </sst>
 </file>
@@ -7878,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD3" sqref="AD3"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8180,10 +8183,20 @@
         <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator")</f>
         <v>python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="12"/>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="12"/>
+      <c r="AA4" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AC4" s="12" t="str">
+        <f t="shared" ref="AC4:AC12" si="4">CONCATENATE(Y4, " --montecarlo --n_samples ", AA4, " --montecarlo_pred_mode ", AB4)</f>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
+      <c r="AD4" s="12" t="str">
+        <f t="shared" ref="AD4:AD12" si="5">CONCATENATE("screen -S ", B4, ".test ", AC4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -8255,10 +8268,20 @@
         <f t="shared" si="3"/>
         <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA5" s="12"/>
-      <c r="AB5" s="12"/>
-      <c r="AC5" s="12"/>
-      <c r="AD5" s="12"/>
+      <c r="AA5" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD5" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE5" s="12"/>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -8330,10 +8353,20 @@
         <f t="shared" si="3"/>
         <v>python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA6" s="12"/>
-      <c r="AB6" s="12"/>
-      <c r="AC6" s="12"/>
-      <c r="AD6" s="12"/>
+      <c r="AA6" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC6" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE6" s="12"/>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -8405,10 +8438,20 @@
         <f t="shared" si="3"/>
         <v>python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA7" s="12"/>
-      <c r="AB7" s="12"/>
-      <c r="AC7" s="12"/>
-      <c r="AD7" s="12"/>
+      <c r="AA7" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC7" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD7" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
@@ -8480,10 +8523,20 @@
         <f t="shared" si="3"/>
         <v>python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
-      <c r="AA8" s="12"/>
-      <c r="AB8" s="12"/>
-      <c r="AC8" s="12"/>
-      <c r="AD8" s="12"/>
+      <c r="AA8" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC8" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD8" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
@@ -8556,10 +8609,20 @@
         <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="12"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="12"/>
-      <c r="AD9" s="12"/>
+      <c r="AA9" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD9" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
@@ -8632,10 +8695,20 @@
         <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="12"/>
-      <c r="AB10" s="12"/>
-      <c r="AC10" s="12"/>
-      <c r="AD10" s="12"/>
+      <c r="AA10" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC10" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD10" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
@@ -8708,10 +8781,20 @@
         <v>python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="12"/>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
+      <c r="AA11" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC11" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD11" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
@@ -8784,10 +8867,20 @@
         <v>python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="12"/>
-      <c r="AB12" s="12"/>
-      <c r="AC12" s="12"/>
-      <c r="AD12" s="12"/>
+      <c r="AA12" s="12">
+        <v>512</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC12" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AD12" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="FinancialTop80volumeX6_5min" sheetId="5" r:id="rId6"/>
     <sheet name="Financial.Top80X6.lrets.norm.1h" sheetId="7" r:id="rId7"/>
     <sheet name="Financial.Top80X6.lrets.norm.5m" sheetId="8" r:id="rId8"/>
-    <sheet name="lstm.v3.NYSEtop80.1h" sheetId="9" r:id="rId9"/>
-    <sheet name="lstm.v3.NYSEtop80.5min" sheetId="10" r:id="rId10"/>
+    <sheet name="20180930-DisRangeLSTM-equalprob" sheetId="9" r:id="rId9"/>
+    <sheet name="20180930-DisRangeLSTM-equalwid" sheetId="11" r:id="rId10"/>
+    <sheet name="lstm.v3.NYSEtop80.5min" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="164">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -564,18 +565,12 @@
     <t>train_path</t>
   </si>
   <si>
-    <t>valid_path</t>
-  </si>
-  <si>
     <t>../data/NYSEtop80.1h.preprcd/train.npy</t>
   </si>
   <si>
     <t>../data/NYSEtop80.1h.preprcd/valid.1.npy</t>
   </si>
   <si>
-    <t>../model/NYSEtop80.1h.1chan/model</t>
-  </si>
-  <si>
     <t>test_path</t>
   </si>
   <si>
@@ -613,6 +608,21 @@
   </si>
   <si>
     <t>mode</t>
+  </si>
+  <si>
+    <t>../model/20180930.DiscreteRangeLSTM.EqualProbInterval/</t>
+  </si>
+  <si>
+    <t>valid_path1</t>
+  </si>
+  <si>
+    <t>valid_path2</t>
+  </si>
+  <si>
+    <t>../data/NYSEtop80.1h.preprcd/valid.2.npy</t>
+  </si>
+  <si>
+    <t>../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/</t>
   </si>
 </sst>
 </file>
@@ -818,6 +828,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -826,9 +839,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1697,6 +1707,742 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AH21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" customWidth="1"/>
+    <col min="30" max="30" width="45" customWidth="1"/>
+    <col min="31" max="31" width="74.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="C1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+      <c r="AC1" s="29"/>
+      <c r="AD1" s="29"/>
+      <c r="AE1" s="29"/>
+      <c r="AF1" s="29"/>
+      <c r="AG1" s="29"/>
+      <c r="AH1" s="29"/>
+    </row>
+    <row r="2" spans="2:34" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
+      </c>
+      <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>128</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="s">
+        <v>150</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>10</v>
+      </c>
+      <c r="K3" s="2">
+        <v>30</v>
+      </c>
+      <c r="L3" s="2">
+        <v>64</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="R3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S3" s="12" t="str">
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB3" s="12">
+        <v>512</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="12" t="str">
+        <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>128</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>30</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="12" t="str">
+        <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f t="shared" ref="S4:S11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="12" t="str">
+        <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z4" s="12" t="str">
+        <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB4" s="12">
+        <v>512</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AD4" s="12" t="str">
+        <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
+      <c r="AE4" s="12" t="str">
+        <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>128</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2">
+        <v>64</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S5" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5" s="30"/>
+      <c r="Y5" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB5" s="12">
+        <v>512</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE5" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>128</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6">
+        <v>30</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S6" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB6" s="12">
+        <v>512</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE6" s="12" t="str">
+        <f t="shared" si="5"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="8"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="8"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+    </row>
+    <row r="9" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="8"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+    </row>
+    <row r="10" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="8"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12"/>
+      <c r="AH10" s="12"/>
+    </row>
+    <row r="11" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="8"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="12"/>
+      <c r="AF11" s="12"/>
+      <c r="AG11" s="12"/>
+      <c r="AH11" s="12"/>
+    </row>
+    <row r="12" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="8"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="R17" s="27"/>
+      <c r="S17" s="27"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="27"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R19" s="27"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R20" s="27"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R21" s="27"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P3:P12"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AH1"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="Q3:Q12"/>
+    <mergeCell ref="X3:X12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2542,20 +3288,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -2572,6 +3304,20 @@
     <mergeCell ref="N17:V17"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z3:AH3"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3411,20 +4157,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="N18:V18"/>
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="N10:V10"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="N11:V11"/>
-    <mergeCell ref="N12:V12"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="N7:V7"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="N8:V8"/>
-    <mergeCell ref="Z8:AH8"/>
-    <mergeCell ref="N9:V9"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="W1:AH1"/>
     <mergeCell ref="A3:A19"/>
     <mergeCell ref="L3:L10"/>
     <mergeCell ref="M3:M10"/>
@@ -3441,6 +4173,20 @@
     <mergeCell ref="N15:V15"/>
     <mergeCell ref="N16:V16"/>
     <mergeCell ref="N17:V17"/>
+    <mergeCell ref="N18:V18"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="N10:V10"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="N11:V11"/>
+    <mergeCell ref="N12:V12"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="N7:V7"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="N8:V8"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="W1:AH1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4227,18 +4973,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="C1:V1"/>
-    <mergeCell ref="W1:AH1"/>
-    <mergeCell ref="N4:V4"/>
-    <mergeCell ref="N3:V3"/>
-    <mergeCell ref="Z3:AH3"/>
-    <mergeCell ref="Z9:AH9"/>
-    <mergeCell ref="Z10:AH10"/>
-    <mergeCell ref="Z4:AH4"/>
-    <mergeCell ref="Z5:AH5"/>
-    <mergeCell ref="Z6:AH6"/>
-    <mergeCell ref="Z7:AH7"/>
-    <mergeCell ref="Z8:AH8"/>
     <mergeCell ref="N10:V10"/>
     <mergeCell ref="N18:V18"/>
     <mergeCell ref="N19:V19"/>
@@ -4255,6 +4989,18 @@
     <mergeCell ref="N7:V7"/>
     <mergeCell ref="N8:V8"/>
     <mergeCell ref="N9:V9"/>
+    <mergeCell ref="Z9:AH9"/>
+    <mergeCell ref="Z10:AH10"/>
+    <mergeCell ref="Z4:AH4"/>
+    <mergeCell ref="Z5:AH5"/>
+    <mergeCell ref="Z6:AH6"/>
+    <mergeCell ref="Z7:AH7"/>
+    <mergeCell ref="Z8:AH8"/>
+    <mergeCell ref="C1:V1"/>
+    <mergeCell ref="W1:AH1"/>
+    <mergeCell ref="N4:V4"/>
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="Z3:AH3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6051,6 +6797,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:P1"/>
+    <mergeCell ref="Q1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O20:P20"/>
     <mergeCell ref="O21:P21"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -6058,11 +6809,6 @@
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="O18:P18"/>
     <mergeCell ref="O19:P19"/>
-    <mergeCell ref="C1:P1"/>
-    <mergeCell ref="Q1:AB1"/>
-    <mergeCell ref="M3:M12"/>
-    <mergeCell ref="N3:N12"/>
-    <mergeCell ref="O20:P20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7879,27 +8625,27 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AG21"/>
+  <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AC4" sqref="AC4"/>
+    <sheetView topLeftCell="P3" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="17" max="17" width="25.5" customWidth="1"/>
-    <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="19" max="19" width="12.6640625" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" customWidth="1"/>
-    <col min="25" max="25" width="17.1640625" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" customWidth="1"/>
-    <col min="29" max="29" width="45" customWidth="1"/>
-    <col min="30" max="30" width="74.33203125" customWidth="1"/>
+    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="19" max="19" width="10" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.1640625" customWidth="1"/>
+    <col min="29" max="29" width="19.1640625" customWidth="1"/>
+    <col min="30" max="30" width="45" customWidth="1"/>
+    <col min="31" max="31" width="74.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.2">
       <c r="C1" s="29" t="s">
         <v>71</v>
       </c>
@@ -7918,11 +8664,11 @@
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
       <c r="R1" s="29"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="29" t="s">
+      <c r="S1" s="29"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="29"/>
       <c r="V1" s="29"/>
       <c r="W1" s="29"/>
       <c r="X1" s="29"/>
@@ -7935,34 +8681,35 @@
       <c r="AE1" s="29"/>
       <c r="AF1" s="29"/>
       <c r="AG1" s="29"/>
-    </row>
-    <row r="2" spans="2:33" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
+      <c r="AH1" s="29"/>
+    </row>
+    <row r="2" spans="2:34" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="13" t="s">
+      <c r="D2" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="14" t="s">
         <v>58</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -7971,59 +8718,62 @@
       <c r="M2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="O2" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="P2" s="13" t="s">
+      <c r="O2" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="S2" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="S2" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="T2" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" t="s">
         <v>67</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>65</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>66</v>
       </c>
-      <c r="W2" t="s">
-        <v>148</v>
-      </c>
       <c r="X2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y2" t="s">
         <v>114</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>115</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>75</v>
       </c>
-      <c r="AA2" t="s">
-        <v>156</v>
-      </c>
       <c r="AB2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AC2" t="s">
         <v>155</v>
       </c>
       <c r="AD2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="2:33" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8031,7 +8781,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -8043,16 +8793,16 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
@@ -8061,62 +8811,65 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="30" t="s">
-        <v>146</v>
-      </c>
       <c r="P3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="R3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S3" s="12" t="str">
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="T3" s="13"/>
+      <c r="U3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="Q3" s="12" t="str">
-        <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
-        <v>screen -S FinData-CR-G1 python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="R3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", V3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S3" s="16"/>
-      <c r="T3" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3">
-        <v>10</v>
-      </c>
-      <c r="V3">
-        <v>100</v>
-      </c>
-      <c r="W3" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="X3" s="12" t="str">
-        <f>CONCATENATE("screen -S ", B3, ".test ", Y3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
       <c r="Y3" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", T3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", V3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA3" s="12">
+        <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z3" s="12" t="str">
+        <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB3" s="12">
         <v>512</v>
       </c>
-      <c r="AB3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="12" t="str">
-        <f>CONCATENATE(Y3, " --montecarlo --n_samples ", AA3, " --montecarlo_pred_mode ", AB3)</f>
-        <v>python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      <c r="AC3" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="AD3" s="12" t="str">
-        <f>CONCATENATE("screen -S ", B3, ".test ", AC3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AE3" s="12"/>
+        <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
-    </row>
-    <row r="4" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="12"/>
+    </row>
+    <row r="4" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
@@ -8124,7 +8877,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8136,16 +8889,16 @@
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L4">
         <v>64</v>
@@ -8156,52 +8909,53 @@
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="30"/>
-      <c r="Q4" s="12" t="str">
-        <f t="shared" ref="Q4:Q12" si="0">CONCATENATE("screen -S ", B4, " ", R4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 100 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
+      <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
-        <f t="shared" ref="R4:R11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", V4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu' --stages 100 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="U4">
-        <v>10</v>
+        <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f t="shared" ref="S4:S12" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="T4" s="13"/>
+      <c r="U4" s="8" t="s">
+        <v>152</v>
       </c>
       <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4">
         <v>100</v>
       </c>
-      <c r="W4" s="30"/>
-      <c r="X4" s="12" t="str">
-        <f t="shared" ref="X4:X12" si="2">CONCATENATE("screen -S ", B4, ".test ", Y4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
+      <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
-        <f t="shared" ref="Y4:Y12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $W$3, "' --model_path '", $P$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", T4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", V4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA4" s="12">
+        <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z4" s="12" t="str">
+        <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB4" s="12">
         <v>512</v>
       </c>
-      <c r="AB4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AC4" s="12" t="str">
-        <f t="shared" ref="AC4:AC12" si="4">CONCATENATE(Y4, " --montecarlo --n_samples ", AA4, " --montecarlo_pred_mode ", AB4)</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      <c r="AC4" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="AD4" s="12" t="str">
-        <f t="shared" ref="AD4:AD12" si="5">CONCATENATE("screen -S ", B4, ".test ", AC4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
-      </c>
-      <c r="AE4" s="12"/>
+        <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
+      <c r="AE4" s="12" t="str">
+        <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+      </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
-    </row>
-    <row r="5" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
@@ -8209,28 +8963,28 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G5">
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I5">
         <v>2</v>
       </c>
       <c r="J5" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L5" s="2">
         <v>64</v>
@@ -8241,52 +8995,53 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="12" t="str">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="R5" s="12" t="str">
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="S5" s="16"/>
-      <c r="T5" s="8" t="s">
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="U5">
-        <v>10</v>
-      </c>
       <c r="V5">
+        <v>10</v>
+      </c>
+      <c r="W5">
         <v>100</v>
       </c>
-      <c r="W5" s="30"/>
-      <c r="X5" s="12" t="str">
+      <c r="X5" s="30"/>
+      <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y5" s="12" t="str">
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA5" s="12">
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB5" s="12">
         <v>512</v>
       </c>
-      <c r="AB5" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC5" s="12" t="str">
+      <c r="AC5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD5" s="12" t="str">
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G3.1lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AE5" s="12"/>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
-    </row>
-    <row r="6" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
@@ -8294,28 +9049,28 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
+        <v>50</v>
+      </c>
+      <c r="G6">
         <v>100</v>
       </c>
-      <c r="G6">
-        <v>300</v>
-      </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6">
         <v>3</v>
       </c>
       <c r="J6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L6">
         <v>64</v>
@@ -8326,646 +9081,279 @@
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="30"/>
-      <c r="Q6" s="12" t="str">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 100 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="R6" s="12" t="str">
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="8" t="s">
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="T6" s="13"/>
+      <c r="U6" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
       <c r="V6">
+        <v>10</v>
+      </c>
+      <c r="W6">
         <v>100</v>
       </c>
-      <c r="W6" s="30"/>
-      <c r="X6" s="12" t="str">
+      <c r="X6" s="30"/>
+      <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y6" s="12" t="str">
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA6" s="12">
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+      </c>
+      <c r="AB6" s="12">
         <v>512</v>
       </c>
-      <c r="AB6" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC6" s="12" t="str">
+      <c r="AC6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD6" s="12" t="str">
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
+      <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 100 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G4.1lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AE6" s="12"/>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+      </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
-    </row>
-    <row r="7" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>64</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>20</v>
-      </c>
-      <c r="G7">
-        <v>128</v>
-      </c>
-      <c r="H7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2">
-        <v>10</v>
-      </c>
-      <c r="L7" s="2">
-        <v>64</v>
-      </c>
-      <c r="M7" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G5 python lstm.keras.v3.py 20 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="R7" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 20 1 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S7" s="16"/>
-      <c r="T7" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="U7">
-        <v>10</v>
-      </c>
-      <c r="V7">
-        <v>100</v>
-      </c>
-      <c r="W7" s="30"/>
-      <c r="X7" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y7" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA7" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC7" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD7" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G5.test python lstm.keras.v3.py 20 1 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G5.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="8"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
       <c r="AE7" s="12"/>
       <c r="AF7" s="12"/>
       <c r="AG7" s="12"/>
-    </row>
-    <row r="8" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>64</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>128</v>
-      </c>
-      <c r="H8" t="s">
-        <v>153</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>20</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="L8">
-        <v>64</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
-      <c r="Q8" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G6 python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="R8" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 20 3 64 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S8" s="16"/>
-      <c r="T8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="U8">
-        <v>10</v>
-      </c>
-      <c r="V8">
-        <v>100</v>
-      </c>
-      <c r="W8" s="30"/>
-      <c r="X8" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="AA8" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC8" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD8" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G6.test python lstm.keras.v3.py 20 3 64 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G6.3lay.20ts.128hu.0030' --Solver DiscreteLstm3Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="8"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
       <c r="AE8" s="12"/>
       <c r="AF8" s="12"/>
       <c r="AG8" s="12"/>
-    </row>
-    <row r="9" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>256</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>100</v>
-      </c>
-      <c r="G9">
-        <v>100</v>
-      </c>
-      <c r="H9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20</v>
-      </c>
-      <c r="K9" s="2">
-        <v>10</v>
-      </c>
-      <c r="L9" s="2">
-        <v>64</v>
-      </c>
-      <c r="M9" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH8" s="12"/>
+    </row>
+    <row r="9" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="30"/>
-      <c r="Q9" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G7 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="R9" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
-      </c>
-      <c r="S9" s="16"/>
-      <c r="T9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
-      <c r="V9">
-        <v>100</v>
-      </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
-      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="8"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="12"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC9" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD9" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G7.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G7.5lay.100ts.100hu.0010' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
       <c r="AE9" s="12"/>
       <c r="AF9" s="12"/>
       <c r="AG9" s="12"/>
-    </row>
-    <row r="10" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>256</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>300</v>
-      </c>
-      <c r="H10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>20</v>
-      </c>
-      <c r="K10">
-        <v>10</v>
-      </c>
-      <c r="L10">
-        <v>64</v>
-      </c>
-      <c r="M10" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH9" s="12"/>
+    </row>
+    <row r="10" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="30"/>
-      <c r="Q10" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G8 python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="R10" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
-      </c>
-      <c r="S10" s="16"/>
-      <c r="T10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U10">
-        <v>10</v>
-      </c>
-      <c r="V10">
-        <v>100</v>
-      </c>
-      <c r="W10" s="30"/>
-      <c r="X10" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y10" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
-      </c>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="8"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="12"/>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC10" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD10" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G8.test python lstm.keras.v3.py 100 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G8.5lay.100ts.300hu.0010' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="12"/>
       <c r="AE10" s="12"/>
       <c r="AF10" s="12"/>
       <c r="AG10" s="12"/>
-    </row>
-    <row r="11" spans="2:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>256</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>300</v>
-      </c>
-      <c r="G11">
-        <v>128</v>
-      </c>
-      <c r="H11" t="s">
-        <v>152</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2">
-        <v>10</v>
-      </c>
-      <c r="L11" s="2">
-        <v>64</v>
-      </c>
-      <c r="M11" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH10" s="12"/>
+    </row>
+    <row r="11" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G9 python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="R11" s="12" t="str">
-        <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
-      </c>
-      <c r="S11" s="16"/>
-      <c r="T11" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U11">
-        <v>10</v>
-      </c>
-      <c r="V11">
-        <v>100</v>
-      </c>
-      <c r="W11" s="30"/>
-      <c r="X11" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
-      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="8"/>
+      <c r="X11" s="30"/>
+      <c r="Y11" s="12"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC11" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD11" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G9.test python lstm.keras.v3.py 300 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G9.3lay.300ts.128hu.0010' --Solver DiscreteLstm1Layer --hidden_units 128 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="12"/>
       <c r="AE11" s="12"/>
       <c r="AF11" s="12"/>
       <c r="AG11" s="12"/>
-    </row>
-    <row r="12" spans="2:33" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>256</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>600</v>
-      </c>
-      <c r="G12">
-        <v>64</v>
-      </c>
-      <c r="H12" t="s">
-        <v>152</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>20</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>64</v>
-      </c>
-      <c r="M12" s="2">
-        <v>1000</v>
-      </c>
+      <c r="AH11" s="12"/>
+    </row>
+    <row r="12" spans="2:34" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="30"/>
       <c r="O12" s="30"/>
       <c r="P12" s="30"/>
-      <c r="Q12" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G10 python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="R12" s="12" t="str">
-        <f>CONCATENATE("python lstm.keras.v3.py ", F12, " ", C12, " ", D12, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $P$3, B12, ".", E12, "lay", ".", F12, "ts.", G12, "hu' --stages ", J12, " --epochs ", K12, " --batches_per_epoch ", M12, " --batch_size ", L12, " --test_length ", V12, " --Solver ", H12, " --hidden_units ", G12, " --CUDA_VISIBLE_DEVICES ", I12, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu' --stages 20 --epochs 10 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
-      </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="U12">
-        <v>10</v>
-      </c>
-      <c r="V12">
-        <v>100</v>
-      </c>
-      <c r="W12" s="30"/>
-      <c r="X12" s="12" t="str">
-        <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
-      <c r="Y12" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
-      </c>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="8"/>
+      <c r="X12" s="30"/>
+      <c r="Y12" s="12"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="12">
-        <v>512</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC12" s="12" t="str">
-        <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
-      <c r="AD12" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G10.test python lstm.keras.v3.py 600 1 256 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/NYSEtop80.1h.1chan/modelFinData-CR-G10.3lay.600ts.64hu.0010' --Solver DiscreteLstm1Layer --hidden_units 64 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
-      </c>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="12"/>
       <c r="AE12" s="12"/>
       <c r="AF12" s="12"/>
       <c r="AG12" s="12"/>
-    </row>
-    <row r="13" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Q14" s="27"/>
       <c r="R14" s="27"/>
-      <c r="S14" s="14"/>
-    </row>
-    <row r="15" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="27"/>
+      <c r="T14" s="15"/>
+    </row>
+    <row r="15" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="27"/>
       <c r="R15" s="27"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="2:33" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="27"/>
+      <c r="T15" s="15"/>
+    </row>
+    <row r="16" spans="2:34" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q16" s="27"/>
       <c r="R16" s="27"/>
-      <c r="S16" s="14"/>
-    </row>
-    <row r="17" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S16" s="27"/>
+      <c r="T16" s="15"/>
+    </row>
+    <row r="17" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="27"/>
       <c r="R17" s="27"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S17" s="27"/>
+      <c r="T17" s="15"/>
+    </row>
+    <row r="18" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q18" s="27"/>
       <c r="R18" s="27"/>
-      <c r="S18" s="14"/>
-    </row>
-    <row r="19" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S18" s="27"/>
+      <c r="T18" s="15"/>
+    </row>
+    <row r="19" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Q19" s="27"/>
       <c r="R19" s="27"/>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S19" s="27"/>
+      <c r="T19" s="15"/>
+    </row>
+    <row r="20" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q20" s="27"/>
       <c r="R20" s="27"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="2:19" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="27"/>
+      <c r="T20" s="15"/>
+    </row>
+    <row r="21" spans="2:20" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q21" s="27"/>
       <c r="R21" s="27"/>
-      <c r="S21" s="14"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="T1:AG1"/>
+  <mergeCells count="15">
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="Q3:Q12"/>
+    <mergeCell ref="X3:X12"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="R16:S16"/>
     <mergeCell ref="N3:N12"/>
     <mergeCell ref="P3:P12"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="Q15:R15"/>
     <mergeCell ref="O3:O12"/>
-    <mergeCell ref="W3:W12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="U1:AH1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -565,18 +565,9 @@
     <t>train_path</t>
   </si>
   <si>
-    <t>../data/NYSEtop80.1h.preprcd/train.npy</t>
-  </si>
-  <si>
-    <t>../data/NYSEtop80.1h.preprcd/valid.1.npy</t>
-  </si>
-  <si>
     <t>test_path</t>
   </si>
   <si>
-    <t>../data/NYSEtop80.1h.preprcd/test.1.npy</t>
-  </si>
-  <si>
     <t>n_classes</t>
   </si>
   <si>
@@ -610,19 +601,28 @@
     <t>mode</t>
   </si>
   <si>
-    <t>../model/20180930.DiscreteRangeLSTM.EqualProbInterval/</t>
-  </si>
-  <si>
     <t>valid_path1</t>
   </si>
   <si>
     <t>valid_path2</t>
   </si>
   <si>
-    <t>../data/NYSEtop80.1h.preprcd/valid.2.npy</t>
-  </si>
-  <si>
-    <t>../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/</t>
+    <t>../../data/NYSEtop80.1h.preprcd/train.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/valid.1.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/valid.2.npy</t>
+  </si>
+  <si>
+    <t>../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/test.1.npy</t>
+  </si>
+  <si>
+    <t>../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1771,7 +1771,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>49</v>
@@ -1804,10 +1804,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -1819,7 +1819,7 @@
         <v>115</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U2" t="s">
         <v>67</v>
@@ -1831,7 +1831,7 @@
         <v>66</v>
       </c>
       <c r="X2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y2" t="s">
         <v>114</v>
@@ -1843,16 +1843,16 @@
         <v>75</v>
       </c>
       <c r="AB2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE2" t="s">
         <v>154</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1875,7 +1875,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -1893,24 +1893,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="30" t="s">
         <v>163</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -1923,29 +1923,29 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -1971,7 +1971,7 @@
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1994,15 +1994,15 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V4">
         <v>10</v>
@@ -2013,25 +2013,25 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -2057,7 +2057,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -2080,11 +2080,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -2099,25 +2099,25 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -2143,7 +2143,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -2166,11 +2166,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -2185,25 +2185,25 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -8627,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="P3" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X12"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8689,7 +8689,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>49</v>
@@ -8722,10 +8722,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -8737,7 +8737,7 @@
         <v>115</v>
       </c>
       <c r="T2" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U2" t="s">
         <v>67</v>
@@ -8749,7 +8749,7 @@
         <v>66</v>
       </c>
       <c r="X2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Y2" t="s">
         <v>114</v>
@@ -8761,16 +8761,16 @@
         <v>75</v>
       </c>
       <c r="AB2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE2" t="s">
         <v>154</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -8793,7 +8793,7 @@
         <v>100</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
@@ -8802,7 +8802,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
@@ -8811,24 +8811,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8841,29 +8841,29 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -8889,7 +8889,7 @@
         <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -8912,15 +8912,15 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S12" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="V4">
         <v>10</v>
@@ -8931,25 +8931,25 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -8975,7 +8975,7 @@
         <v>100</v>
       </c>
       <c r="H5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -8998,11 +8998,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9017,25 +9017,25 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -9061,7 +9061,7 @@
         <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="I6">
         <v>3</v>
@@ -9084,11 +9084,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -9103,25 +9103,25 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -1709,8 +1709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1906,11 +1906,11 @@
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="12" t="str">
-        <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -1994,11 +1994,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python lstm.keras.v3.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f t="shared" ref="S4:S11" si="1">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path '", $O$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -2080,11 +2080,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -2166,11 +2166,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -8627,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8824,11 +8824,11 @@
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="S3" s="12" t="str">
-        <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8912,11 +8912,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f t="shared" ref="S4:S12" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f t="shared" ref="S4:S7" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -8998,11 +8998,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9084,11 +9084,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="162">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -592,9 +592,6 @@
     <t>montecarlo_pred_mode</t>
   </si>
   <si>
-    <t>modal</t>
-  </si>
-  <si>
     <t>MCMC-LINUX</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
   </si>
   <si>
     <t>../../data/NYSEtop80.1h.preprcd/test.1.npy</t>
-  </si>
-  <si>
-    <t>../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/</t>
   </si>
 </sst>
 </file>
@@ -1709,15 +1703,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="18" max="18" width="84" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" customWidth="1"/>
     <col min="25" max="25" width="12.6640625" customWidth="1"/>
@@ -1804,10 +1798,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -1852,10 +1846,10 @@
         <v>150</v>
       </c>
       <c r="AE2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1884,7 +1878,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
@@ -1893,24 +1887,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>163</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S3" s="12" t="str">
-        <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -1923,29 +1917,29 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -1994,11 +1988,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -2013,25 +2007,25 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -2080,11 +2074,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -2099,25 +2093,25 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -2166,11 +2160,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -2185,25 +2179,25 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -8627,15 +8621,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="18" max="18" width="25.5" customWidth="1"/>
+    <col min="18" max="18" width="84" customWidth="1"/>
     <col min="19" max="19" width="10" customWidth="1"/>
     <col min="20" max="20" width="12.6640625" customWidth="1"/>
     <col min="25" max="25" width="12.6640625" customWidth="1"/>
@@ -8722,10 +8716,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>156</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>157</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -8770,10 +8764,10 @@
         <v>150</v>
       </c>
       <c r="AE2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="2:34" ht="119" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -8811,24 +8805,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>159</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>160</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>161</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S3" s="12" t="str">
-        <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+        <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8841,7 +8835,7 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
@@ -8855,15 +8849,15 @@
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -8912,11 +8906,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S4" s="12" t="str">
-        <f t="shared" ref="S4:S7" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator")</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+        <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -8941,7 +8935,7 @@
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
@@ -8998,11 +8992,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9027,15 +9021,15 @@
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -9084,11 +9078,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -9113,15 +9107,15 @@
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode modal</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -595,9 +595,6 @@
     <t>MCMC-LINUX</t>
   </si>
   <si>
-    <t>mode</t>
-  </si>
-  <si>
     <t>valid_path1</t>
   </si>
   <si>
@@ -617,6 +614,9 @@
   </si>
   <si>
     <t>../../data/NYSEtop80.1h.preprcd/test.1.npy</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1798,10 +1798,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -1887,24 +1887,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -1917,7 +1917,7 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
@@ -1931,15 +1931,15 @@
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -1988,11 +1988,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -2017,15 +2017,15 @@
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -2074,11 +2074,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -2103,15 +2103,15 @@
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -2160,11 +2160,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -2189,15 +2189,15 @@
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -8621,8 +8621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8716,10 +8716,10 @@
         <v>143</v>
       </c>
       <c r="O2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="P2" s="14" t="s">
         <v>155</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>156</v>
       </c>
       <c r="Q2" s="14" t="s">
         <v>56</v>
@@ -8805,24 +8805,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="P3" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="Q3" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="Q3" s="30" t="s">
-        <v>160</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8835,7 +8835,7 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
@@ -8849,15 +8849,15 @@
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -8906,11 +8906,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -8935,15 +8935,15 @@
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -8992,11 +8992,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9021,15 +9021,15 @@
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -9078,11 +9078,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -9107,15 +9107,15 @@
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mode</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="163">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -601,22 +601,25 @@
     <t>valid_path2</t>
   </si>
   <si>
-    <t>../../data/NYSEtop80.1h.preprcd/train.npy</t>
-  </si>
-  <si>
-    <t>../../data/NYSEtop80.1h.preprcd/valid.1.npy</t>
-  </si>
-  <si>
-    <t>../../data/NYSEtop80.1h.preprcd/valid.2.npy</t>
-  </si>
-  <si>
-    <t>../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/</t>
-  </si>
-  <si>
     <t>../../data/NYSEtop80.1h.preprcd/test.1.npy</t>
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/train.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/</t>
+  </si>
+  <si>
+    <t>../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/</t>
   </si>
 </sst>
 </file>
@@ -1703,8 +1706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z4" sqref="Z4"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1849,7 +1852,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="3" spans="2:34" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:34" ht="123" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1875,10 +1878,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
@@ -1887,24 +1890,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -1917,29 +1920,29 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -1953,7 +1956,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1971,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>64</v>
@@ -1988,11 +1991,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualWidthInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 10 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -2007,25 +2010,25 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -2039,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2074,11 +2077,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -2093,25 +2096,25 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -2125,7 +2128,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>128</v>
+        <v>512</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2160,11 +2163,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualWidthInterval.py 50 1 512 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -2179,25 +2182,25 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 512 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualWidthInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
@@ -8622,7 +8625,7 @@
   <dimension ref="B1:AH21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N3" sqref="N3:N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8775,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -8793,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2">
         <v>64</v>
@@ -8805,24 +8808,24 @@
         <v>1000</v>
       </c>
       <c r="N3" s="30" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O3" s="30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P3" s="30" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu' --stages 10 --epochs 1 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8835,29 +8838,29 @@
         <v>100</v>
       </c>
       <c r="X3" s="30" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
       </c>
       <c r="AC3" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -8871,7 +8874,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -8889,10 +8892,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K4">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L4">
         <v>64</v>
@@ -8905,12 +8908,12 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
-        <f t="shared" ref="R4:R12" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <f t="shared" ref="R4:R6" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -8925,25 +8928,25 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
       </c>
       <c r="AC4" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -8992,11 +8995,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9011,25 +9014,25 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
       </c>
       <c r="AC5" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -9078,11 +9081,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -9097,25 +9100,25 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
       </c>
       <c r="AC6" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>

--- a/demo/tests_20180910.xlsx
+++ b/demo/tests_20180910.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="Financial.Top80X6.lrets.norm.5m" sheetId="8" r:id="rId8"/>
     <sheet name="20180930-DisRangeLSTM-equalprob" sheetId="9" r:id="rId9"/>
     <sheet name="20180930-DisRangeLSTM-equalwid" sheetId="11" r:id="rId10"/>
-    <sheet name="lstm.v3.NYSEtop80.5min" sheetId="10" r:id="rId11"/>
+    <sheet name="20180930-ConRangeLSTM" sheetId="12" r:id="rId11"/>
+    <sheet name="lstm.v3.NYSEtop80.5min" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="170">
   <si>
     <t>1 layer stack</t>
   </si>
@@ -620,6 +621,27 @@
   </si>
   <si>
     <t>../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/</t>
+  </si>
+  <si>
+    <t>Lstm1Layer</t>
+  </si>
+  <si>
+    <t>Lstm3Layer</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.5min.preprcd/train.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy</t>
+  </si>
+  <si>
+    <t>../../model/20180930.ContinuRangeLSTM.truncatedata/</t>
+  </si>
+  <si>
+    <t>../../data/NYSEtop80.5min.preprcd/test.1.truncate.npy</t>
   </si>
 </sst>
 </file>
@@ -1706,8 +1728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2439,6 +2461,604 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3:O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="84" customWidth="1"/>
+    <col min="18" max="18" width="10" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" customWidth="1"/>
+    <col min="24" max="24" width="17.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="C1" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
+    </row>
+    <row r="2" spans="2:28" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="S2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
+        <v>66</v>
+      </c>
+      <c r="V2" t="s">
+        <v>144</v>
+      </c>
+      <c r="W2" t="s">
+        <v>114</v>
+      </c>
+      <c r="X2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" ht="151" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>20</v>
+      </c>
+      <c r="J3" s="2">
+        <v>50</v>
+      </c>
+      <c r="K3" s="2">
+        <v>64</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q3" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B3, " ", R3)</f>
+        <v>screen -S FinData-CR-G1 python ContinuRangeLSTM.py 10 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G1.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="R3" s="12" t="str">
+        <f xml:space="preserve"> CONCATENATE("python ContinuRangeLSTM.py ", E3, " ", C3, " --train_path '", $M$3, "' --valid_path1 '", $N$3, "' --valid_path2 '", $O$3, "' --model_path '", $P$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu' --stages ", I3, " --epochs ", J3, " --batches_per_epoch ", L3, " --batch_size ", K3, " --test_length ", U3, " --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --fit_generator")</f>
+        <v>python ContinuRangeLSTM.py 10 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G1.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --fit_generator</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="T3">
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <v>100</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>169</v>
+      </c>
+      <c r="W3" s="12" t="e">
+        <f>CONCATENATE("screen -S ", B3, ".test ", X3)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X3" s="12" t="e">
+        <f>CONCATENATE("python lstm.keras.v3.py ", E3, " ", C3, " ",#REF!, " --train_path ", $M$3, " --valid_path ", $N$3, " --test_path '", $V$3, "' --model_path '", $P$3, B3, ".", D3, "lay", ".", E3, "ts.", F3, "hu.", S3, "' --Solver ", G3, " --hidden_units ", F3, " --CUDA_VISIBLE_DEVICES ", H3, " --test --test_length ", U3, " --fit_generator")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+    </row>
+    <row r="4" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>50</v>
+      </c>
+      <c r="K4">
+        <v>64</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B4, " ", R4)</f>
+        <v>screen -S FinData-CR-G2 python ContinuRangeLSTM.py 10 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G2.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="R4" s="12" t="str">
+        <f t="shared" ref="R4:R6" si="0" xml:space="preserve"> CONCATENATE("python ContinuRangeLSTM.py ", E4, " ", C4, " --train_path '", $M$3, "' --valid_path1 '", $N$3, "' --valid_path2 '", $O$3, "' --model_path '", $P$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu' --stages ", I4, " --epochs ", J4, " --batches_per_epoch ", L4, " --batch_size ", K4, " --test_length ", U4, " --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --fit_generator")</f>
+        <v>python ContinuRangeLSTM.py 10 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G2.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --fit_generator</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4" s="30"/>
+      <c r="W4" s="12" t="e">
+        <f>CONCATENATE("screen -S ", B4, ".test ", X4)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X4" s="12" t="e">
+        <f>CONCATENATE("python lstm.keras.v3.py ", E4, " ", C4, " ",#REF!, " --train_path ", $M$3, " --valid_path ", $N$3, " --test_path '", $V$3, "' --model_path '", $P$3, B4, ".", D4, "lay", ".", E4, "ts.", F4, "hu.", S4, "' --Solver ", G4, " --hidden_units ", F4, " --CUDA_VISIBLE_DEVICES ", H4, " --test --test_length ", U4, " --fit_generator")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+    </row>
+    <row r="5" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>164</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="2">
+        <v>30</v>
+      </c>
+      <c r="K5" s="2">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B5, " ", R5)</f>
+        <v>screen -S FinData-CR-G3 python ContinuRangeLSTM.py 50 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G3.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="R5" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>python ContinuRangeLSTM.py 50 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G3.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --fit_generator</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="T5">
+        <v>10</v>
+      </c>
+      <c r="U5">
+        <v>100</v>
+      </c>
+      <c r="V5" s="30"/>
+      <c r="W5" s="12" t="e">
+        <f>CONCATENATE("screen -S ", B5, ".test ", X5)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X5" s="12" t="e">
+        <f>CONCATENATE("python lstm.keras.v3.py ", E5, " ", C5, " ",#REF!, " --train_path ", $M$3, " --valid_path ", $N$3, " --test_path '", $V$3, "' --model_path '", $P$3, B5, ".", D5, "lay", ".", E5, "ts.", F5, "hu.", S5, "' --Solver ", G5, " --hidden_units ", F5, " --CUDA_VISIBLE_DEVICES ", H5, " --test --test_length ", U5, " --fit_generator")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+    </row>
+    <row r="6" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>164</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="12" t="str">
+        <f>CONCATENATE("screen -S ", B6, " ", R6)</f>
+        <v>screen -S FinData-CR-G4 python ContinuRangeLSTM.py 50 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G4.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="R6" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>python ContinuRangeLSTM.py 50 1 --train_path '../../data/NYSEtop80.5min.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.5min.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.5min.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.ContinuRangeLSTM.truncatedata/FinData-CR-G4.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver Lstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --fit_generator</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="T6">
+        <v>10</v>
+      </c>
+      <c r="U6">
+        <v>100</v>
+      </c>
+      <c r="V6" s="30"/>
+      <c r="W6" s="12" t="e">
+        <f>CONCATENATE("screen -S ", B6, ".test ", X6)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="X6" s="12" t="e">
+        <f>CONCATENATE("python lstm.keras.v3.py ", E6, " ", C6, " ",#REF!, " --train_path ", $M$3, " --valid_path ", $N$3, " --test_path '", $V$3, "' --model_path '", $P$3, B6, ".", D6, "lay", ".", E6, "ts.", F6, "hu.", S6, "' --Solver ", G6, " --hidden_units ", F6, " --CUDA_VISIBLE_DEVICES ", H6, " --test --test_length ", U6, " --fit_generator")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+    </row>
+    <row r="7" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="8"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+    </row>
+    <row r="8" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="8"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+    </row>
+    <row r="9" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="8"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="8"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+    </row>
+    <row r="11" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="8"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+    </row>
+    <row r="12" spans="2:28" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="8"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+    </row>
+    <row r="13" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+    </row>
+    <row r="15" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="27"/>
+      <c r="R15" s="27"/>
+    </row>
+    <row r="16" spans="2:28" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+    </row>
+    <row r="17" spans="2:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="27"/>
+      <c r="R17" s="27"/>
+    </row>
+    <row r="18" spans="2:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="27"/>
+    </row>
+    <row r="19" spans="2:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="27"/>
+    </row>
+    <row r="20" spans="2:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="27"/>
+    </row>
+    <row r="21" spans="2:18" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="S1:AB1"/>
+    <mergeCell ref="M3:M12"/>
+    <mergeCell ref="N3:N12"/>
+    <mergeCell ref="O3:O12"/>
+    <mergeCell ref="P3:P12"/>
+    <mergeCell ref="V3:V12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -8624,7 +9244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AH21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N3" sqref="N3:N12"/>
     </sheetView>
   </sheetViews>
@@ -8787,7 +9407,7 @@
         <v>10</v>
       </c>
       <c r="G3">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>147</v>
@@ -8821,11 +9441,11 @@
       </c>
       <c r="R3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, " ", S3)</f>
-        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S3" s="12" t="str">
         <f>CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F3, " ", C3, " ", D3, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu' --stages ", J3, " --epochs ", K3, " --batches_per_epoch ", M3, " --batch_size ", L3, " --test_length ", W3, " --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --fit_generator --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T3" s="13"/>
       <c r="U3" s="8" t="s">
@@ -8842,11 +9462,11 @@
       </c>
       <c r="Y3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", Z3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu.0100' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z3" s="12" t="str">
         <f>CONCATENATE("python lstm.keras.v3.py ", F3, " ", C3, " ", D3, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B3, ".", E3, "lay", ".", F3, "ts.", G3, "hu.", U3, "' --Solver ", H3, " --hidden_units ", G3, " --CUDA_VISIBLE_DEVICES ", I3, " --test --test_length ", W3, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu.0100' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB3" s="12">
         <v>512</v>
@@ -8856,11 +9476,11 @@
       </c>
       <c r="AD3" s="12" t="str">
         <f>CONCATENATE(Z3, " --montecarlo --n_samples ", AB3, " --montecarlo_pred_mode ", AC3)</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu.0100' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE3" s="12" t="str">
         <f>CONCATENATE("screen -S ", B3, ".test ", AD3)</f>
-        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.100hu.0100' --Solver DiscreteLstm1Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G1.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G1.1lay.10ts.32hu.0100' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 0 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF3" s="12"/>
       <c r="AG3" s="12"/>
@@ -8883,7 +9503,7 @@
         <v>10</v>
       </c>
       <c r="G4">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
         <v>147</v>
@@ -8909,11 +9529,11 @@
       <c r="Q4" s="30"/>
       <c r="R4" s="12" t="str">
         <f t="shared" ref="R4:R6" si="0">CONCATENATE("screen -S ", B4, " ", S4)</f>
-        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G2 python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S4" s="12" t="str">
         <f t="shared" ref="S4:S6" si="1">CONCATENATE("python DiscreteRangeLSTM-EqualProbInterval.py ", F4, " ", C4, " ", D4, " --train_path '", $N$3, "' --valid_path1 '", $O$3, "' --valid_path2 '", $P$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu' --stages ", J4, " --epochs ", K4, " --batches_per_epoch ", M4, " --batch_size ", L4, " --test_length ", W4, " --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --fit_generator --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 10 1 64 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu' --stages 20 --epochs 50 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T4" s="13"/>
       <c r="U4" s="8" t="s">
@@ -8928,11 +9548,11 @@
       <c r="X4" s="30"/>
       <c r="Y4" s="12" t="str">
         <f t="shared" ref="Y4:Y12" si="2">CONCATENATE("screen -S ", B4, ".test ", Z4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu.1000' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z4" s="12" t="str">
         <f t="shared" ref="Z4:Z12" si="3">CONCATENATE("python lstm.keras.v3.py ", F4, " ", C4, " ", D4, " --train_path ", $N$3, " --valid_path ", $O$3, " --test_path '", $X$3, "' --model_path '", $Q$3, B4, ".", E4, "lay", ".", F4, "ts.", G4, "hu.", U4, "' --Solver ", H4, " --hidden_units ", G4, " --CUDA_VISIBLE_DEVICES ", I4, " --test --test_length ", W4, " --fit_generator")</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu.1000' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB4" s="12">
         <v>512</v>
@@ -8942,11 +9562,11 @@
       </c>
       <c r="AD4" s="12" t="str">
         <f t="shared" ref="AD4:AD12" si="4">CONCATENATE(Z4, " --montecarlo --n_samples ", AB4, " --montecarlo_pred_mode ", AC4)</f>
-        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu.1000' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE4" s="12" t="str">
         <f t="shared" ref="AE4:AE12" si="5">CONCATENATE("screen -S ", B4, ".test ", AD4)</f>
-        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.300hu.1000' --Solver DiscreteLstm1Layer --hidden_units 300 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G2.test python lstm.keras.v3.py 10 1 64 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G2.1lay.10ts.32hu.1000' --Solver DiscreteLstm1Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 1 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF4" s="12"/>
       <c r="AG4" s="12"/>
@@ -8969,7 +9589,7 @@
         <v>50</v>
       </c>
       <c r="G5">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H5" t="s">
         <v>148</v>
@@ -8995,11 +9615,11 @@
       <c r="Q5" s="30"/>
       <c r="R5" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S5" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T5" s="13"/>
       <c r="U5" s="8" t="s">
@@ -9014,11 +9634,11 @@
       <c r="X5" s="30"/>
       <c r="Y5" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z5" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB5" s="12">
         <v>512</v>
@@ -9028,11 +9648,11 @@
       </c>
       <c r="AD5" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE5" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G3.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G3.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 2 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF5" s="12"/>
       <c r="AG5" s="12"/>
@@ -9055,7 +9675,7 @@
         <v>50</v>
       </c>
       <c r="G6">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>148</v>
@@ -9081,11 +9701,11 @@
       <c r="Q6" s="30"/>
       <c r="R6" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4 python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="S6" s="12" t="str">
         <f t="shared" si="1"/>
-        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python DiscreteRangeLSTM-EqualProbInterval.py 50 1 128 --train_path '../../data/NYSEtop80.1h.preprcd/train.truncate.npy' --valid_path1 '../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy' --valid_path2 '../../data/NYSEtop80.1h.preprcd/valid.2.truncate.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu' --stages 10 --epochs 30 --batches_per_epoch 1000 --batch_size 64 --test_length 100 --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="T6" s="13"/>
       <c r="U6" s="8" t="s">
@@ -9100,11 +9720,11 @@
       <c r="X6" s="30"/>
       <c r="Y6" s="12" t="str">
         <f t="shared" si="2"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="Z6" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator</v>
       </c>
       <c r="AB6" s="12">
         <v>512</v>
@@ -9114,11 +9734,11 @@
       </c>
       <c r="AD6" s="12" t="str">
         <f t="shared" si="4"/>
-        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AE6" s="12" t="str">
         <f t="shared" si="5"/>
-        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.100hu.0010' --Solver DiscreteLstm3Layer --hidden_units 100 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
+        <v>screen -S FinData-CR-G4.test python lstm.keras.v3.py 50 1 128 --train_path ../../data/NYSEtop80.1h.preprcd/train.truncate.npy --valid_path ../../data/NYSEtop80.1h.preprcd/valid.1.truncate.npy --test_path '../../data/NYSEtop80.1h.preprcd/test.1.npy' --model_path '../../model/20180930.DiscreteRangeLSTM.EqualProbInterval.truncatedata/FinData-CR-G4.1lay.50ts.32hu.0010' --Solver DiscreteLstm3Layer --hidden_units 32 --CUDA_VISIBLE_DEVICES 3 --test --test_length 100 --fit_generator --montecarlo --n_samples 512 --montecarlo_pred_mode mean</v>
       </c>
       <c r="AF6" s="12"/>
       <c r="AG6" s="12"/>
